--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CBEEB2-CE6A-412C-95C4-E1F88814E2FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08189EF-C0E1-4DCD-B49E-D96F6A80B1BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1931,15 +1931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BI105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI2" sqref="BI2:BI105"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="38" width="6" customWidth="1"/>
+    <col min="4" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" customWidth="1"/>
+    <col min="38" max="38" width="6" customWidth="1"/>
     <col min="39" max="39" width="8.54296875" customWidth="1"/>
     <col min="40" max="43" width="6" customWidth="1"/>
     <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
@@ -2223,31 +2225,31 @@
         <v>18</v>
       </c>
       <c r="AK2" t="str">
-        <f>IF(H2&gt;0,CONCATENATE(IF(H2&gt;1200,H2/100-12,H2/100),IF(H2&gt;1200,"pm","am"),"-",IF(I2&gt;1200,I2/100-12,I2/100),IF(I2&gt;1200,"pm","am")),"")</f>
+        <f>IF(H2&gt;0,CONCATENATE(IF(H2&gt;=1200,H2/100-12,H2/100),IF(H2&gt;=1200,"pm","am"),"-",IF(I2&gt;=1200,I2/100-12,I2/100),IF(I2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AL2" t="str">
-        <f>IF(J2&gt;0,CONCATENATE(IF(J2&gt;1200,J2/100-12,J2/100),IF(J2&gt;1200,"pm","am"),"-",IF(K2&gt;1200,K2/100-12,K2/100),IF(K2&gt;1200,"pm","am")),"")</f>
+        <f>IF(J2&gt;0,CONCATENATE(IF(J2&gt;=1200,J2/100-12,J2/100),IF(J2&gt;=1200,"pm","am"),"-",IF(K2&gt;=1200,K2/100-12,K2/100),IF(K2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AM2" t="str">
-        <f>IF(L2&gt;0,CONCATENATE(IF(L2&gt;1200,L2/100-12,L2/100),IF(L2&gt;1200,"pm","am"),"-",IF(M2&gt;1200,M2/100-12,M2/100),IF(M2&gt;1200,"pm","am")),"")</f>
+        <f>IF(L2&gt;0,CONCATENATE(IF(L2&gt;=1200,L2/100-12,L2/100),IF(L2&gt;=1200,"pm","am"),"-",IF(M2&gt;=1200,M2/100-12,M2/100),IF(M2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AN2" t="str">
-        <f>IF(N2&gt;0,CONCATENATE(IF(N2&gt;1200,N2/100-12,N2/100),IF(N2&gt;1200,"pm","am"),"-",IF(O2&gt;1200,O2/100-12,O2/100),IF(O2&gt;1200,"pm","am")),"")</f>
+        <f>IF(N2&gt;0,CONCATENATE(IF(N2&gt;=1200,N2/100-12,N2/100),IF(N2&gt;=1200,"pm","am"),"-",IF(O2&gt;=1200,O2/100-12,O2/100),IF(O2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AO2" t="str">
-        <f>IF(P2&gt;0,CONCATENATE(IF(P2&gt;1200,P2/100-12,P2/100),IF(P2&gt;1200,"pm","am"),"-",IF(Q2&gt;1200,Q2/100-12,Q2/100),IF(Q2&gt;1200,"pm","am")),"")</f>
+        <f>IF(P2&gt;0,CONCATENATE(IF(P2&gt;=1200,P2/100-12,P2/100),IF(P2&gt;=1200,"pm","am"),"-",IF(Q2&gt;=1200,Q2/100-12,Q2/100),IF(Q2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AP2" t="str">
-        <f>IF(R2&gt;0,CONCATENATE(IF(R2&gt;1200,R2/100-12,R2/100),IF(R2&gt;1200,"pm","am"),"-",IF(S2&gt;1200,S2/100-12,S2/100),IF(S2&gt;1200,"pm","am")),"")</f>
+        <f>IF(R2&gt;0,CONCATENATE(IF(R2&gt;=1200,R2/100-12,R2/100),IF(R2&gt;=1200,"pm","am"),"-",IF(S2&gt;=1200,S2/100-12,S2/100),IF(S2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AQ2" t="str">
-        <f>IF(T2&gt;0,CONCATENATE(IF(T2&gt;1200,T2/100-12,T2/100),IF(T2&gt;1200,"pm","am"),"-",IF(U2&gt;1200,U2/100-12,U2/100),IF(U2&gt;1200,"pm","am")),"")</f>
+        <f>IF(T2&gt;0,CONCATENATE(IF(T2&gt;=1200,T2/100-12,T2/100),IF(T2&gt;=1200,"pm","am"),"-",IF(U2&gt;=1200,U2/100-12,U2/100),IF(U2&gt;=1200,"pm","am")),"")</f>
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" s="3" t="s">
@@ -2389,31 +2391,31 @@
         <v/>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK66" si="16">IF(H3&gt;0,CONCATENATE(IF(H3&gt;1200,H3/100-12,H3/100),IF(H3&gt;1200,"pm","am"),"-",IF(I3&gt;1200,I3/100-12,I3/100),IF(I3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AK3:AK66" si="16">IF(H3&gt;0,CONCATENATE(IF(H3&gt;=1200,H3/100-12,H3/100),IF(H3&gt;=1200,"pm","am"),"-",IF(I3&gt;=1200,I3/100-12,I3/100),IF(I3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL66" si="17">IF(J3&gt;0,CONCATENATE(IF(J3&gt;1200,J3/100-12,J3/100),IF(J3&gt;1200,"pm","am"),"-",IF(K3&gt;1200,K3/100-12,K3/100),IF(K3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AL3:AL66" si="17">IF(J3&gt;0,CONCATENATE(IF(J3&gt;=1200,J3/100-12,J3/100),IF(J3&gt;=1200,"pm","am"),"-",IF(K3&gt;=1200,K3/100-12,K3/100),IF(K3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM66" si="18">IF(L3&gt;0,CONCATENATE(IF(L3&gt;1200,L3/100-12,L3/100),IF(L3&gt;1200,"pm","am"),"-",IF(M3&gt;1200,M3/100-12,M3/100),IF(M3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AM3:AM66" si="18">IF(L3&gt;0,CONCATENATE(IF(L3&gt;=1200,L3/100-12,L3/100),IF(L3&gt;=1200,"pm","am"),"-",IF(M3&gt;=1200,M3/100-12,M3/100),IF(M3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN66" si="19">IF(N3&gt;0,CONCATENATE(IF(N3&gt;1200,N3/100-12,N3/100),IF(N3&gt;1200,"pm","am"),"-",IF(O3&gt;1200,O3/100-12,O3/100),IF(O3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AN3:AN66" si="19">IF(N3&gt;0,CONCATENATE(IF(N3&gt;=1200,N3/100-12,N3/100),IF(N3&gt;=1200,"pm","am"),"-",IF(O3&gt;=1200,O3/100-12,O3/100),IF(O3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AO3" t="str">
-        <f t="shared" ref="AO3:AO66" si="20">IF(P3&gt;0,CONCATENATE(IF(P3&gt;1200,P3/100-12,P3/100),IF(P3&gt;1200,"pm","am"),"-",IF(Q3&gt;1200,Q3/100-12,Q3/100),IF(Q3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AO3:AO66" si="20">IF(P3&gt;0,CONCATENATE(IF(P3&gt;=1200,P3/100-12,P3/100),IF(P3&gt;=1200,"pm","am"),"-",IF(Q3&gt;=1200,Q3/100-12,Q3/100),IF(Q3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AP3" t="str">
-        <f t="shared" ref="AP3:AP66" si="21">IF(R3&gt;0,CONCATENATE(IF(R3&gt;1200,R3/100-12,R3/100),IF(R3&gt;1200,"pm","am"),"-",IF(S3&gt;1200,S3/100-12,S3/100),IF(S3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AP3:AP66" si="21">IF(R3&gt;0,CONCATENATE(IF(R3&gt;=1200,R3/100-12,R3/100),IF(R3&gt;=1200,"pm","am"),"-",IF(S3&gt;=1200,S3/100-12,S3/100),IF(S3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AQ3" t="str">
-        <f t="shared" ref="AQ3:AQ66" si="22">IF(T3&gt;0,CONCATENATE(IF(T3&gt;1200,T3/100-12,T3/100),IF(T3&gt;1200,"pm","am"),"-",IF(U3&gt;1200,U3/100-12,U3/100),IF(U3&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AQ3:AQ66" si="22">IF(T3&gt;0,CONCATENATE(IF(T3&gt;=1200,T3/100-12,T3/100),IF(T3&gt;=1200,"pm","am"),"-",IF(U3&gt;=1200,U3/100-12,U3/100),IF(U3&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AR3" s="2" t="s">
@@ -6188,7 +6190,7 @@
       </c>
       <c r="AN23" t="str">
         <f t="shared" si="19"/>
-        <v>12am-8pm</v>
+        <v>0pm-8pm</v>
       </c>
       <c r="AO23" t="str">
         <f t="shared" si="20"/>
@@ -6630,7 +6632,7 @@
         <v>[40.587391,-105.075629],</v>
       </c>
     </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:61" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>156</v>
       </c>
@@ -6725,7 +6727,7 @@
       </c>
       <c r="AK26" t="str">
         <f t="shared" si="16"/>
-        <v>12am-7pm</v>
+        <v>0pm-7pm</v>
       </c>
       <c r="AL26" t="str">
         <f t="shared" si="17"/>
@@ -6816,7 +6818,7 @@
         <v>[40.589994,-105.076655],</v>
       </c>
     </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:61" ht="145" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>77</v>
       </c>
@@ -12150,7 +12152,7 @@
         <v>[40.54055,-105.076428],</v>
       </c>
     </row>
-    <row r="56" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:61" ht="174" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>200</v>
       </c>
@@ -14285,31 +14287,31 @@
         <v/>
       </c>
       <c r="AK67" t="str">
-        <f t="shared" ref="AK67:AK105" si="47">IF(H67&gt;0,CONCATENATE(IF(H67&gt;1200,H67/100-12,H67/100),IF(H67&gt;1200,"pm","am"),"-",IF(I67&gt;1200,I67/100-12,I67/100),IF(I67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AK67:AK105" si="47">IF(H67&gt;0,CONCATENATE(IF(H67&gt;=1200,H67/100-12,H67/100),IF(H67&gt;=1200,"pm","am"),"-",IF(I67&gt;=1200,I67/100-12,I67/100),IF(I67&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AL67" t="str">
-        <f t="shared" ref="AL67:AL105" si="48">IF(J67&gt;0,CONCATENATE(IF(J67&gt;1200,J67/100-12,J67/100),IF(J67&gt;1200,"pm","am"),"-",IF(K67&gt;1200,K67/100-12,K67/100),IF(K67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AL67:AL105" si="48">IF(J67&gt;0,CONCATENATE(IF(J67&gt;=1200,J67/100-12,J67/100),IF(J67&gt;=1200,"pm","am"),"-",IF(K67&gt;=1200,K67/100-12,K67/100),IF(K67&gt;=1200,"pm","am")),"")</f>
         <v>3.3pm-6pm</v>
       </c>
       <c r="AM67" t="str">
-        <f t="shared" ref="AM67:AM105" si="49">IF(L67&gt;0,CONCATENATE(IF(L67&gt;1200,L67/100-12,L67/100),IF(L67&gt;1200,"pm","am"),"-",IF(M67&gt;1200,M67/100-12,M67/100),IF(M67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AM67:AM105" si="49">IF(L67&gt;0,CONCATENATE(IF(L67&gt;=1200,L67/100-12,L67/100),IF(L67&gt;=1200,"pm","am"),"-",IF(M67&gt;=1200,M67/100-12,M67/100),IF(M67&gt;=1200,"pm","am")),"")</f>
         <v>3.3pm-6pm</v>
       </c>
       <c r="AN67" t="str">
-        <f t="shared" ref="AN67:AN105" si="50">IF(N67&gt;0,CONCATENATE(IF(N67&gt;1200,N67/100-12,N67/100),IF(N67&gt;1200,"pm","am"),"-",IF(O67&gt;1200,O67/100-12,O67/100),IF(O67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AN67:AN105" si="50">IF(N67&gt;0,CONCATENATE(IF(N67&gt;=1200,N67/100-12,N67/100),IF(N67&gt;=1200,"pm","am"),"-",IF(O67&gt;=1200,O67/100-12,O67/100),IF(O67&gt;=1200,"pm","am")),"")</f>
         <v>3.3pm-6pm</v>
       </c>
       <c r="AO67" t="str">
-        <f t="shared" ref="AO67:AO105" si="51">IF(P67&gt;0,CONCATENATE(IF(P67&gt;1200,P67/100-12,P67/100),IF(P67&gt;1200,"pm","am"),"-",IF(Q67&gt;1200,Q67/100-12,Q67/100),IF(Q67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AO67:AO105" si="51">IF(P67&gt;0,CONCATENATE(IF(P67&gt;=1200,P67/100-12,P67/100),IF(P67&gt;=1200,"pm","am"),"-",IF(Q67&gt;=1200,Q67/100-12,Q67/100),IF(Q67&gt;=1200,"pm","am")),"")</f>
         <v>3.3pm-6pm</v>
       </c>
       <c r="AP67" t="str">
-        <f t="shared" ref="AP67:AP105" si="52">IF(R67&gt;0,CONCATENATE(IF(R67&gt;1200,R67/100-12,R67/100),IF(R67&gt;1200,"pm","am"),"-",IF(S67&gt;1200,S67/100-12,S67/100),IF(S67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AP67:AP105" si="52">IF(R67&gt;0,CONCATENATE(IF(R67&gt;=1200,R67/100-12,R67/100),IF(R67&gt;=1200,"pm","am"),"-",IF(S67&gt;=1200,S67/100-12,S67/100),IF(S67&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AQ67" t="str">
-        <f t="shared" ref="AQ67:AQ105" si="53">IF(T67&gt;0,CONCATENATE(IF(T67&gt;1200,T67/100-12,T67/100),IF(T67&gt;1200,"pm","am"),"-",IF(U67&gt;1200,U67/100-12,U67/100),IF(U67&gt;1200,"pm","am")),"")</f>
+        <f t="shared" ref="AQ67:AQ105" si="53">IF(T67&gt;0,CONCATENATE(IF(T67&gt;=1200,T67/100-12,T67/100),IF(T67&gt;=1200,"pm","am"),"-",IF(U67&gt;=1200,U67/100-12,U67/100),IF(U67&gt;=1200,"pm","am")),"")</f>
         <v/>
       </c>
       <c r="AR67" s="2" t="s">
@@ -16342,7 +16344,7 @@
         <v>[40.590139,-105.075401],</v>
       </c>
     </row>
-    <row r="79" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:61" ht="116" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>216</v>
       </c>
@@ -17038,7 +17040,7 @@
         <v>[40.589929,-105.058724],</v>
       </c>
     </row>
-    <row r="83" spans="2:61" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:61" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>325</v>
       </c>
@@ -20797,7 +20799,7 @@
         <v>[40.590724,-105.073266],</v>
       </c>
     </row>
-    <row r="104" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:61" ht="116" x14ac:dyDescent="0.35">
       <c r="B104" s="10" t="s">
         <v>49</v>
       </c>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81BCF7-2CAF-4C7A-8C33-62E8CAC987F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A290AC-E8F6-4D0F-932A-5CE358D3EE5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK8" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BE2" sqref="BE2:BE118"/>
     </sheetView>
   </sheetViews>
@@ -2106,6 +2106,7 @@
     <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.08984375" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:64" x14ac:dyDescent="0.35">
@@ -2463,8 +2464,8 @@
         <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE2" t="str">
-        <f>CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2="true","kid",""))</f>
-        <v>easy med sfoco</v>
+        <f>CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2=TRUE," kid",""))</f>
+        <v>easy med sfoco kid</v>
       </c>
       <c r="BF2" t="str">
         <f t="shared" ref="BF2:BF33" si="21">IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco", "South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",""))))))</f>
@@ -2677,7 +2678,7 @@
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
       <c r="BE3" t="str">
-        <f t="shared" ref="BE3:BE66" si="45">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3="true","kid",""))</f>
+        <f t="shared" ref="BE3:BE66" si="45">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3=TRUE," kid",""))</f>
         <v>hard med old</v>
       </c>
       <c r="BF3" t="str">
@@ -4026,7 +4027,7 @@
       </c>
       <c r="BE10" t="str">
         <f t="shared" si="45"/>
-        <v>outdoor drink medium med old</v>
+        <v>outdoor drink medium med old kid</v>
       </c>
       <c r="BF10" t="str">
         <f t="shared" si="21"/>
@@ -4822,7 +4823,7 @@
       </c>
       <c r="BE14" t="str">
         <f t="shared" si="45"/>
-        <v>outdoor drink easy med campus</v>
+        <v>outdoor drink easy med campus kid</v>
       </c>
       <c r="BF14" t="str">
         <f t="shared" si="21"/>
@@ -5033,7 +5034,7 @@
       </c>
       <c r="BE15" t="str">
         <f t="shared" si="45"/>
-        <v>drink food hard med old</v>
+        <v>drink food hard med old kid</v>
       </c>
       <c r="BF15" t="str">
         <f t="shared" si="21"/>
@@ -5591,7 +5592,7 @@
       </c>
       <c r="BE18" t="str">
         <f t="shared" si="45"/>
-        <v>easy low sfoco</v>
+        <v>easy low sfoco kid</v>
       </c>
       <c r="BF18" t="str">
         <f t="shared" si="21"/>
@@ -5701,7 +5702,7 @@
       </c>
       <c r="BE19" t="str">
         <f t="shared" si="45"/>
-        <v>medium low midtown</v>
+        <v>medium low midtown kid</v>
       </c>
       <c r="BF19" t="str">
         <f t="shared" si="21"/>
@@ -6298,7 +6299,7 @@
       </c>
       <c r="BE22" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">outdoor drink food easy med </v>
+        <v>outdoor drink food easy med  kid</v>
       </c>
       <c r="BF22" t="str">
         <f t="shared" si="21"/>
@@ -7821,7 +7822,7 @@
       </c>
       <c r="BE30" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> med sfoco</v>
+        <v xml:space="preserve"> med sfoco kid</v>
       </c>
       <c r="BF30" t="str">
         <f t="shared" si="21"/>
@@ -7987,7 +7988,7 @@
       </c>
       <c r="BE31" t="str">
         <f t="shared" si="45"/>
-        <v>easy low midtown</v>
+        <v>easy low midtown kid</v>
       </c>
       <c r="BF31" t="str">
         <f t="shared" si="21"/>
@@ -9211,7 +9212,7 @@
       </c>
       <c r="BE38" t="str">
         <f t="shared" si="45"/>
-        <v>easy low sfoco</v>
+        <v>easy low sfoco kid</v>
       </c>
       <c r="BF38" t="str">
         <f t="shared" si="67"/>
@@ -10609,7 +10610,7 @@
       </c>
       <c r="BE46" t="str">
         <f t="shared" si="45"/>
-        <v>easy med midtown</v>
+        <v>easy med midtown kid</v>
       </c>
       <c r="BF46" t="str">
         <f t="shared" si="67"/>
@@ -11847,7 +11848,7 @@
       </c>
       <c r="BE53" t="str">
         <f t="shared" si="45"/>
-        <v>easy med midtown</v>
+        <v>easy med midtown kid</v>
       </c>
       <c r="BF53" t="str">
         <f t="shared" si="67"/>
@@ -12230,7 +12231,7 @@
       </c>
       <c r="BE55" t="str">
         <f t="shared" si="45"/>
-        <v>drink easy med midtown</v>
+        <v>drink easy med midtown kid</v>
       </c>
       <c r="BF55" t="str">
         <f t="shared" si="67"/>
@@ -14549,7 +14550,7 @@
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
       </c>
       <c r="BE67" t="str">
-        <f t="shared" ref="BE67:BE118" si="103">CONCATENATE(IF(AS67&gt;0,"outdoor ",""),IF(AT67&gt;0,"pet ",""),IF(AV67="true","drink ",""),IF(AW67="true","food ",""),AU67," ",E67," ",C67,IF(BJ67="true","kid",""))</f>
+        <f t="shared" ref="BE67:BE118" si="103">CONCATENATE(IF(AS67&gt;0,"outdoor ",""),IF(AT67&gt;0,"pet ",""),IF(AV67="true","drink ",""),IF(AW67="true","food ",""),AU67," ",E67," ",C67,IF(BJ67=TRUE," kid",""))</f>
         <v>outdoor pet easy low midtown</v>
       </c>
       <c r="BF67" t="str">
@@ -15051,7 +15052,7 @@
       </c>
       <c r="BE70" t="str">
         <f t="shared" si="103"/>
-        <v>outdoor medium med old</v>
+        <v>outdoor medium med old kid</v>
       </c>
       <c r="BF70" t="str">
         <f t="shared" si="93"/>
@@ -15850,7 +15851,7 @@
       </c>
       <c r="BE74" t="str">
         <f t="shared" si="103"/>
-        <v>outdoor drink food easy med campus</v>
+        <v>outdoor drink food easy med campus kid</v>
       </c>
       <c r="BF74" t="str">
         <f t="shared" si="93"/>
@@ -16464,7 +16465,7 @@
       </c>
       <c r="BE78" t="str">
         <f t="shared" si="103"/>
-        <v>easy med sfoco</v>
+        <v>easy med sfoco kid</v>
       </c>
       <c r="BF78" t="str">
         <f t="shared" si="93"/>
@@ -17171,7 +17172,7 @@
       </c>
       <c r="BE82" t="str">
         <f t="shared" si="103"/>
-        <v>hard med old</v>
+        <v>hard med old kid</v>
       </c>
       <c r="BF82" t="str">
         <f t="shared" si="93"/>
@@ -18192,7 +18193,7 @@
       </c>
       <c r="BE88" t="str">
         <f t="shared" si="103"/>
-        <v>easy med sfoco</v>
+        <v>easy med sfoco kid</v>
       </c>
       <c r="BF88" t="str">
         <f t="shared" si="93"/>
@@ -18468,7 +18469,7 @@
       </c>
       <c r="BE90" t="str">
         <f t="shared" si="103"/>
-        <v>easy low sfoco</v>
+        <v>easy low sfoco kid</v>
       </c>
       <c r="BF90" t="str">
         <f t="shared" si="93"/>
@@ -19563,7 +19564,7 @@
       </c>
       <c r="BE96" t="str">
         <f t="shared" si="103"/>
-        <v>hard low old</v>
+        <v>hard low old kid</v>
       </c>
       <c r="BF96" t="str">
         <f t="shared" si="93"/>
@@ -19908,7 +19909,7 @@
       </c>
       <c r="BE98" t="str">
         <f t="shared" si="103"/>
-        <v>outdoor medium med old</v>
+        <v>outdoor medium med old kid</v>
       </c>
       <c r="BF98" t="str">
         <f t="shared" ref="BF98:BF118" si="128">IF(C98="old","Old Town",IF(C98="campus","Near Campus",IF(C98="sfoco", "South Foco",IF(C98="nfoco","North Foco",IF(C98="midtown","Midtown",IF(C98="cwest","Campus West",""))))))</f>
@@ -20760,7 +20761,7 @@
       </c>
       <c r="BE103" t="str">
         <f t="shared" si="103"/>
-        <v>easy med sfoco</v>
+        <v>easy med sfoco kid</v>
       </c>
       <c r="BF103" t="str">
         <f t="shared" si="128"/>
@@ -21796,7 +21797,7 @@
       </c>
       <c r="BE109" t="str">
         <f t="shared" si="103"/>
-        <v>easy low sfoco</v>
+        <v>easy low sfoco kid</v>
       </c>
       <c r="BF109" t="str">
         <f t="shared" si="128"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A290AC-E8F6-4D0F-932A-5CE358D3EE5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BDCE2-140F-4023-B07D-64251B0D92F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK8" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2:BE118"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,9 +2100,10 @@
     <col min="22" max="22" width="6" style="13" customWidth="1"/>
     <col min="23" max="36" width="6" customWidth="1"/>
     <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="6" customWidth="1"/>
-    <col min="39" max="39" width="8.54296875" customWidth="1"/>
-    <col min="40" max="43" width="6" customWidth="1"/>
+    <col min="38" max="38" width="13.6328125" customWidth="1"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="40" max="42" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="15.90625" customWidth="1"/>
     <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.08984375" customWidth="1"/>
@@ -2393,8 +2394,8 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AL2" t="str">
-        <f>IF(J2&gt;0,CONCATENATE(IF(Y2&lt;=12,Y2,Y2-12),IF(OR(Y2&lt;12,Y2=24),"am","pm"),"-",IF(Z2&lt;=12,Z2,Z2-12),IF(OR(Z2&gt;12,Z2=24),"am","pm")),"")</f>
-        <v>4pm-6am</v>
+        <f>IF(J2&gt;0,CONCATENATE(IF(Y2&lt;=12,Y2,Y2-12),IF(OR(Y2&lt;12,Y2=24),"am","pm"),"-",IF(Z2&lt;=12,Z2,Z2-12),IF(OR(Z2&lt;12,Z2=24),"am","pm")),"")</f>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM2" t="str">
         <f>IF(L2&gt;0,CONCATENATE(IF(AA2&lt;=12,AA2,AA2-12),IF(OR(AA2&lt;12,AA2=24),"am","pm"),"-",IF(AB2&lt;=12,AB2,AB2-12),IF(OR(AB2&lt;12,AB2=24),"am","pm")),"")</f>
@@ -2611,8 +2612,8 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL66" si="39">IF(J3&gt;0,CONCATENATE(IF(Y3&lt;=12,Y3,Y3-12),IF(OR(Y3&lt;12,Y3=24),"am","pm"),"-",IF(Z3&lt;=12,Z3,Z3-12),IF(OR(Z3&gt;12,Z3=24),"am","pm")),"")</f>
-        <v>4pm-6am</v>
+        <f t="shared" ref="AL3:AL66" si="39">IF(J3&gt;0,CONCATENATE(IF(Y3&lt;=12,Y3,Y3-12),IF(OR(Y3&lt;12,Y3=24),"am","pm"),"-",IF(Z3&lt;=12,Z3,Z3-12),IF(OR(Z3&lt;12,Z3=24),"am","pm")),"")</f>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM3" t="str">
         <f t="shared" ref="AM3:AM66" si="40">IF(L3&gt;0,CONCATENATE(IF(AA3&lt;=12,AA3,AA3-12),IF(OR(AA3&lt;12,AA3=24),"am","pm"),"-",IF(AB3&lt;=12,AB3,AB3-12),IF(OR(AB3&lt;12,AB3=24),"am","pm")),"")</f>
@@ -3161,7 +3162,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" si="40"/>
@@ -3743,7 +3744,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-7am</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AM9" t="str">
         <f t="shared" si="40"/>
@@ -3957,7 +3958,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM10" t="str">
         <f t="shared" si="40"/>
@@ -4177,7 +4178,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM11" t="str">
         <f t="shared" si="40"/>
@@ -4542,7 +4543,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-7am</v>
+        <v>3pm-7pm</v>
       </c>
       <c r="AM13" t="str">
         <f t="shared" si="40"/>
@@ -4753,7 +4754,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" si="39"/>
-        <v>11am-4am</v>
+        <v>11am-4pm</v>
       </c>
       <c r="AM14" t="str">
         <f t="shared" si="40"/>
@@ -4967,7 +4968,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" si="39"/>
-        <v>10am-2am</v>
+        <v>10am-2pm</v>
       </c>
       <c r="AM15" t="str">
         <f t="shared" si="40"/>
@@ -5172,7 +5173,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM16" t="str">
         <f t="shared" si="40"/>
@@ -6021,7 +6022,7 @@
       </c>
       <c r="AL21" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM21" t="str">
         <f t="shared" si="40"/>
@@ -6229,7 +6230,7 @@
       </c>
       <c r="AL22" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM22" t="str">
         <f t="shared" si="40"/>
@@ -6437,7 +6438,7 @@
       </c>
       <c r="AL23" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM23" t="str">
         <f t="shared" si="40"/>
@@ -7152,7 +7153,7 @@
       </c>
       <c r="AL27" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM27" t="str">
         <f t="shared" si="40"/>
@@ -7559,7 +7560,7 @@
       </c>
       <c r="AL29" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM29" t="str">
         <f t="shared" si="40"/>
@@ -7758,7 +7759,7 @@
       </c>
       <c r="AL30" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM30" t="str">
         <f t="shared" si="40"/>
@@ -8830,7 +8831,7 @@
       </c>
       <c r="AL36" t="str">
         <f t="shared" si="39"/>
-        <v>4.3pm-7am</v>
+        <v>4.3pm-7pm</v>
       </c>
       <c r="AM36" t="str">
         <f t="shared" si="40"/>
@@ -9041,7 +9042,7 @@
       </c>
       <c r="AL37" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM37" t="str">
         <f t="shared" si="40"/>
@@ -9528,7 +9529,7 @@
       </c>
       <c r="AL40" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM40" t="str">
         <f t="shared" si="40"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="AL42" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM42" t="str">
         <f t="shared" si="40"/>
@@ -10107,7 +10108,7 @@
       </c>
       <c r="AL43" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM43" t="str">
         <f t="shared" si="40"/>
@@ -10923,7 +10924,7 @@
       </c>
       <c r="AL48" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-7am</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AM48" t="str">
         <f t="shared" si="40"/>
@@ -11122,7 +11123,7 @@
       </c>
       <c r="AL49" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM49" t="str">
         <f t="shared" si="40"/>
@@ -11674,7 +11675,7 @@
       </c>
       <c r="AL52" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-8am</v>
+        <v>3pm-8pm</v>
       </c>
       <c r="AM52" t="str">
         <f t="shared" si="40"/>
@@ -12164,7 +12165,7 @@
       </c>
       <c r="AL55" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-7am</v>
+        <v>3pm-7pm</v>
       </c>
       <c r="AM55" t="str">
         <f t="shared" si="40"/>
@@ -12381,7 +12382,7 @@
       </c>
       <c r="AL56" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM56" t="str">
         <f t="shared" si="40"/>
@@ -12595,7 +12596,7 @@
       </c>
       <c r="AL57" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6.3am</v>
+        <v>3pm-6.3pm</v>
       </c>
       <c r="AM57" t="str">
         <f t="shared" si="40"/>
@@ -13295,7 +13296,7 @@
       </c>
       <c r="AL61" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM61" t="str">
         <f t="shared" si="40"/>
@@ -13503,7 +13504,7 @@
       </c>
       <c r="AL62" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-7am</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AM62" t="str">
         <f t="shared" si="40"/>
@@ -13714,7 +13715,7 @@
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM63" t="str">
         <f t="shared" si="40"/>
@@ -13928,7 +13929,7 @@
       </c>
       <c r="AL64" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-7am</v>
+        <v>3pm-7pm</v>
       </c>
       <c r="AM64" t="str">
         <f t="shared" si="40"/>
@@ -14308,7 +14309,7 @@
       </c>
       <c r="AL66" t="str">
         <f t="shared" si="39"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM66" t="str">
         <f t="shared" si="40"/>
@@ -14477,7 +14478,7 @@
         <v/>
       </c>
       <c r="AL67" t="str">
-        <f t="shared" ref="AL67:AL118" si="97">IF(J67&gt;0,CONCATENATE(IF(Y67&lt;=12,Y67,Y67-12),IF(OR(Y67&lt;12,Y67=24),"am","pm"),"-",IF(Z67&lt;=12,Z67,Z67-12),IF(OR(Z67&gt;12,Z67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AL67:AL118" si="97">IF(J67&gt;0,CONCATENATE(IF(Y67&lt;=12,Y67,Y67-12),IF(OR(Y67&lt;12,Y67=24),"am","pm"),"-",IF(Z67&lt;=12,Z67,Z67-12),IF(OR(Z67&lt;12,Z67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AM67" t="str">
@@ -15202,7 +15203,7 @@
       </c>
       <c r="AL71" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM71" t="str">
         <f t="shared" si="98"/>
@@ -15416,7 +15417,7 @@
       </c>
       <c r="AL72" t="str">
         <f t="shared" si="97"/>
-        <v>11am-8.3am</v>
+        <v>11am-8.3pm</v>
       </c>
       <c r="AM72" t="str">
         <f t="shared" si="98"/>
@@ -15781,7 +15782,7 @@
       </c>
       <c r="AL74" t="str">
         <f t="shared" si="97"/>
-        <v>3.3pm-6am</v>
+        <v>3.3pm-6pm</v>
       </c>
       <c r="AM74" t="str">
         <f t="shared" si="98"/>
@@ -16615,7 +16616,7 @@
       </c>
       <c r="AL79" t="str">
         <f t="shared" si="97"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM79" t="str">
         <f t="shared" si="98"/>
@@ -16829,7 +16830,7 @@
       </c>
       <c r="AL80" t="str">
         <f t="shared" si="97"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM80" t="str">
         <f t="shared" si="98"/>
@@ -17108,7 +17109,7 @@
       </c>
       <c r="AL82" t="str">
         <f t="shared" si="97"/>
-        <v>am-pm</v>
+        <v>am-am</v>
       </c>
       <c r="AM82" t="str">
         <f t="shared" si="98"/>
@@ -17488,7 +17489,7 @@
       </c>
       <c r="AL84" t="str">
         <f t="shared" si="97"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM84" t="str">
         <f t="shared" si="98"/>
@@ -17684,7 +17685,7 @@
       </c>
       <c r="AL85" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM85" t="str">
         <f t="shared" si="98"/>
@@ -18779,7 +18780,7 @@
       </c>
       <c r="AL92" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM92" t="str">
         <f t="shared" si="98"/>
@@ -19165,7 +19166,7 @@
       </c>
       <c r="AL94" t="str">
         <f t="shared" si="97"/>
-        <v>4pm-6am</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM94" t="str">
         <f t="shared" si="98"/>
@@ -20059,7 +20060,7 @@
       </c>
       <c r="AL99" t="str">
         <f t="shared" si="97"/>
-        <v>11am-2am</v>
+        <v>11am-2pm</v>
       </c>
       <c r="AM99" t="str">
         <f t="shared" si="98"/>
@@ -20421,7 +20422,7 @@
       </c>
       <c r="AL101" t="str">
         <f t="shared" si="97"/>
-        <v>5pm-6am</v>
+        <v>5pm-6pm</v>
       </c>
       <c r="AM101" t="str">
         <f t="shared" si="98"/>
@@ -21234,7 +21235,7 @@
       </c>
       <c r="AL106" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM106" t="str">
         <f t="shared" si="98"/>
@@ -21433,7 +21434,7 @@
       </c>
       <c r="AL107" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-6am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM107" t="str">
         <f t="shared" si="98"/>
@@ -21947,7 +21948,7 @@
       </c>
       <c r="AL110" t="str">
         <f t="shared" si="97"/>
-        <v>10.3am-7am</v>
+        <v>10.3am-7pm</v>
       </c>
       <c r="AM110" t="str">
         <f t="shared" si="98"/>
@@ -22149,7 +22150,7 @@
       </c>
       <c r="AL111" t="str">
         <f t="shared" si="97"/>
-        <v>3pm-7am</v>
+        <v>3pm-7pm</v>
       </c>
       <c r="AM111" t="str">
         <f t="shared" si="98"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BDCE2-140F-4023-B07D-64251B0D92F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7234A8AF-E208-4DF3-8987-F31E168B5C07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,9 +1564,6 @@
     <t>2925 S College Ave Fort Collins CO</t>
   </si>
   <si>
-    <t>Tueday: Up to two kids per table eat free with adult purchase</t>
-  </si>
-  <si>
     <t>Monday: Kids eat free with adult purchase</t>
   </si>
   <si>
@@ -1634,6 +1631,9 @@
   </si>
   <si>
     <t>$3 select brews &lt;br&gt; $4 wells &lt;br&gt; $5 house wines</t>
+  </si>
+  <si>
+    <t>Tueday: Up to two kids eat free with adult purchase</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL118"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2490,7 +2490,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -5727,7 +5727,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -7662,7 +7662,7 @@
         <v>483</v>
       </c>
       <c r="G30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J30">
         <v>1500</v>
@@ -7695,7 +7695,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="46"/>
@@ -7782,7 +7782,7 @@
         <v/>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AV30" t="b">
         <v>1</v>
@@ -7847,7 +7847,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -7861,7 +7861,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="46"/>
@@ -8013,7 +8013,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -9141,7 +9141,7 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AK38" t="str">
         <f t="shared" si="38"/>
@@ -9237,7 +9237,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -10539,7 +10539,7 @@
         <v>483</v>
       </c>
       <c r="G46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AK46" t="str">
         <f t="shared" si="38"/>
@@ -10635,7 +10635,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL46" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -11777,7 +11777,7 @@
         <v>483</v>
       </c>
       <c r="G53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AK53" t="str">
         <f t="shared" si="38"/>
@@ -11873,7 +11873,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -16394,7 +16394,7 @@
         <v>483</v>
       </c>
       <c r="G78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AK78" t="str">
         <f t="shared" si="96"/>
@@ -16490,7 +16490,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -17098,7 +17098,7 @@
         <v>483</v>
       </c>
       <c r="G82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J82">
         <v>1500</v>
@@ -18122,7 +18122,7 @@
         <v>483</v>
       </c>
       <c r="G88" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AK88" t="str">
         <f t="shared" si="96"/>
@@ -18218,7 +18218,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL88" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -18389,7 +18389,7 @@
     </row>
     <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C90" t="s">
         <v>480</v>
@@ -18398,7 +18398,7 @@
         <v>54</v>
       </c>
       <c r="G90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AK90" t="str">
         <f t="shared" si="96"/>
@@ -18494,7 +18494,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -20690,7 +20690,7 @@
         <v>483</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AK103" t="str">
         <f t="shared" si="96"/>
@@ -20786,7 +20786,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL103" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -21726,7 +21726,7 @@
         <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AK109" t="str">
         <f t="shared" si="96"/>
@@ -21822,7 +21822,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL109" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7234A8AF-E208-4DF3-8987-F31E168B5C07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6527394-62C5-4218-9F75-9B3704CC720F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,9 +730,6 @@
     <t>4612 S. Mason St., Suite 120, Fort Collins, CO 80525</t>
   </si>
   <si>
-    <t>Mugs: $2.75 \n 20 Ounce Pints: $4 \n Pitchers: $12 \n Bargain Priced Pool</t>
-  </si>
-  <si>
     <t>https://coopersmithspub.com</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     <t>http://www.jaysbistro.net/</t>
   </si>
   <si>
-    <t>Cocktails: $5 \n Martinis: $6 \n Wine by the Glass: $5 \n Selected Draft Beers: $3.50</t>
-  </si>
-  <si>
     <t>http://suhsushi.wixsite.com/suhsushi</t>
   </si>
   <si>
@@ -778,9 +772,6 @@
     <t>Wide range of drink and food specials</t>
   </si>
   <si>
-    <t>Premium Wells: $3.50 \n Martini’s &amp; Manhattan's: $5.00  \n Select Draft Beers: $3.50 \n House Wines: $3.50 \n A range of food specials</t>
-  </si>
-  <si>
     <t>https://www.thefourfifteen.com/</t>
   </si>
   <si>
@@ -799,27 +790,15 @@
     <t>Big Al's Burgers &amp; Dogs</t>
   </si>
   <si>
-    <t>Well Martini: $6.50 \n 100% Agave Margarita: $6.50 \n Draught Pine &amp; Bottled Beer: $1.00 off \n Wine by the Glass &amp; Well Drinks: $1.00 off \n Range of small bites and appetizers</t>
-  </si>
-  <si>
     <t>Daily Specials</t>
   </si>
   <si>
-    <t>House Hot Sake $2.50 (small) $5.00 (large) \n House Wine $5.00 \n Sake Bomb $2.00 \n ODELL IPA (FT. COLLINS) $3.00 \n Kirin Ichiban (draft) $3.00 \n New Belgium (draft) $3.00 \n Corona (bottle) $2.50 \n Coors Light (bottle) $2.50 \n Bud Light (bottle) $2.50 \n Wide range of sushi specials</t>
-  </si>
-  <si>
-    <t>Mule: $7 /n Martini: $6 \n Select Cocktails: $6 \n Season Beer: $6 \n Wines: $5 \n Draft Beer: $1.50 off \n Fish &amp; Chips with Beer: $24.95 \n Wide range of appetizers</t>
-  </si>
-  <si>
     <t>https://www.nyalafortcollins.com/</t>
   </si>
   <si>
     <t>https://chebahut.com/</t>
   </si>
   <si>
-    <t>$3.25 Domestic Pints \n $3.00 Shot Specials \n $3.50 Well Drinks \n $4.25 Micro Beer Pints \n $4.00 House Wines \n $5.00 Margaritas \n $6.00 House Martinis</t>
-  </si>
-  <si>
     <t>https://espoons.com</t>
   </si>
   <si>
@@ -829,24 +808,12 @@
     <t>https://oldchicago.com/</t>
   </si>
   <si>
-    <t>$3 Shots and Drafts \n $5 Jefe, Del Sol, Pomegranate Marg, MND &amp; Lunch Box</t>
-  </si>
-  <si>
-    <t>$1 Off House Cocktails \n $5 Mai Tais All Day on Mondays!</t>
-  </si>
-  <si>
     <t>Wide range of food and drink specials</t>
   </si>
   <si>
-    <t>Draft beers $3.00 \n Budwiser $2.00 \n House Wine $3.75 \n Appetizer specials and pizza by the slice</t>
-  </si>
-  <si>
     <t>https://www.thekitchenbistros.com/location/the-kitchen-fort-collins/</t>
   </si>
   <si>
-    <t>$3.50 Drafts \n $4.50 Wines \n $5.50 Signature Martinis \n Half Price Select Apps and Flatbreads</t>
-  </si>
-  <si>
     <t>https://www.cbpotts.com/locations/foothills/</t>
   </si>
   <si>
@@ -868,72 +835,33 @@
     <t>https://www.odellbrewing.com/</t>
   </si>
   <si>
-    <t xml:space="preserve"> $1 off all drafts \n $3.50 Wells \n $5 grilled cheese meals.</t>
-  </si>
-  <si>
     <t>https://prostbrewing.com/</t>
   </si>
   <si>
     <t>https://rallykingbrewing.com/</t>
   </si>
   <si>
-    <t>Drinks \n $2 Domestics &amp; Well Drinks \n $3 Flavored Pinnacle &amp; Three Olives Vodka \n $4 Mile High Spirits \n Fireside &amp; Fireside Peach Bourbon, Elevate Vodka, Denver Dry Gin, Peg Leg Rum \n $1 off Craft Drafts \n Food \n $2.50 Pork Sammys \n $3 Poutine</t>
-  </si>
-  <si>
     <t>$1 off guest drafts</t>
   </si>
   <si>
     <t>https://tonysbarfortcollins.com/</t>
   </si>
   <si>
-    <t>Free pool during Happy Hour and all day Tuesday \n $2.00 Domestic Drafts \n $3.00 Select Micro Drafts \n $3.00 Single/$5.00 Double Wells and Freshies \n $5.00 Moscow Mules \n Happy Hour Appetizers: $6.00 Select appetizers Monday thru Friday 2 PM til 6 PM</t>
-  </si>
-  <si>
     <t>https://www.wolverinefarm.org/letterpressandpublickhouse/</t>
   </si>
   <si>
-    <t>Everyday: $1 off Wells, Wines and Drafts \n Monday \n $1 off Domestic Bottles &amp; Drafts \n Tuesday \n $1 off Microbrews \n Wednesday \n $1 off all Gluten Free beer \n $3 Glass of House Wine \n Thursday \n $3 off Draft Pitchers \n $3 off Bottles of Wine \n Friday \n $6 Fat Tire Pints \n $3 Refills- Keep the Glass \n Saturday \n $3 Seasonal beers \n Sunday \n $3 Bloody Marys</t>
-  </si>
-  <si>
-    <t>$2 Domestic Bottles \n $3 Wine \n $4 Calls \n $1 off draft beer and cocktails \n 1/2 off most apps and mini pizzas</t>
-  </si>
-  <si>
-    <t>$1 off Black Bottle Beers \n $4 well drinks</t>
-  </si>
-  <si>
     <t>Blind Pig</t>
   </si>
   <si>
-    <t xml:space="preserve">Tues-Fri: \n $3 select micros \n $2.50 domestics \n $3 wells \n $4 wine \n $5-7 select appetizers \n Saturdays: \n $12 select micro pitchers \n $10 domestic pitchers \n $3 select cocktails \n $1 mimosas \n $5 build your own bloody mary bar \n $14 all you can eat brunch. </t>
-  </si>
-  <si>
-    <t>$5 Margaritas \n $2 off Wines \n $3 Bottled Beer</t>
-  </si>
-  <si>
     <t>Bondi's Beach Bar</t>
   </si>
   <si>
     <t>11 Old Town Square #120, Fort Collins, CO 80524</t>
   </si>
   <si>
-    <t>$2 wells \n $3 draughts \n $4 select wines</t>
-  </si>
-  <si>
-    <t>$4 drafts \n $4.50 wells \n $6 wine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.50 18oz house drafts, wells, wine &amp; Potts Teas \n $3 to $5.50 select appetizers </t>
-  </si>
-  <si>
-    <t>Sundays: $2 off Bloody Mary’s \n Wed-Thur: \n $6 select cocktails including mules \n $2 off select appetizers</t>
-  </si>
-  <si>
     <t>Elliot's Martini Bar</t>
   </si>
   <si>
-    <t>$2 off martinis \n $2 off tapas</t>
-  </si>
-  <si>
     <t>Forge Publick House</t>
   </si>
   <si>
@@ -961,36 +889,21 @@
     <t>Fox and Crow</t>
   </si>
   <si>
-    <t>1/2 off beer and cider \n Almost wines 1/2 off \n $6 Mini cheeseboard \n Other food specials</t>
-  </si>
-  <si>
     <t>2601 S Lemay Ave Suite #9, Fort Collins, CO 80525</t>
   </si>
   <si>
     <t>High Point</t>
   </si>
   <si>
-    <t>$2 PBR and Bud Lite \n $3 Wells \n $3.25 drafts \n $3.50 wine</t>
-  </si>
-  <si>
     <t>146 N College Ave, Fort Collins, CO 80524</t>
   </si>
   <si>
-    <t>$2.50 Coors Lights &amp; Coors Drafts \n $3.50 Select Craft Drafts \n $4 House Margaritas \n $3 Wells \n Free Chips and Salsa w/ Bar purchase</t>
-  </si>
-  <si>
-    <t>$4 draft beer \n $5 wine \n $5 select cocktails \n $4 select appetizers</t>
-  </si>
-  <si>
     <t>Lucky Joes</t>
   </si>
   <si>
     <t>Bar Food, Craft Beer</t>
   </si>
   <si>
-    <t>Monday-Friday \n $1 off wells, wines, and drafts \n Saturday \n $1.50 Bud and Coors \n $2.50 wells and micros \n $3.50 Guinness \n $1 off wines \n Monday \n $3.50 burger baskets \n $2.50 pints of 90 Schilling, 5 Barrel, Odell IPA \n Tuesday \n $2.50 Guinness pints all day \n Wednesday \n $2.50 You Call It 7pm-close \n Thursday \n $3 pints w/ $3 bomb shots \n Sunday \n $2 Bloody Marys, well vodka drinks, and green chili \n $2.50 New Belgium</t>
-  </si>
-  <si>
     <t>25 Old Town Square, Fort Collins, CO 80524</t>
   </si>
   <si>
@@ -1000,9 +913,6 @@
     <t>Burger, Bar Food, Craft Beer, Cocktails</t>
   </si>
   <si>
-    <t>$3 craft beer cocktails \n $3.5 wells \n $1.5 off Breck and Wynkoop drafts \n $5 house wines</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -1015,9 +925,6 @@
     <t>Burgers, Bar Food</t>
   </si>
   <si>
-    <t>Monday-Sunday 11 am-7 pm: \n $2 domestics and $6 pitchers \n $2.50-micros and $8 pitchers \n $2 wells \n $2 PBR pints (all day) \n Monday: \n Happy Hour All Day \n Tuesday: \n 2-for-1 burgers 7pm-11pm \n $2 select micros 7pm-close \n Wednesday 7 pm-close: \n $2.50 New Belgium \n Thursday 7 pm-close: \n $2.50 Odell beers \n $1 tacos 6-11 pm \n Friday: \n $6 PBR pitchers and $2.50 Jagermeister \n Saturday: \n $4 domestic beer and brat \n Sunday: \n $16 wings and pitcher (domestic) \n $19 wings and pitcher (micro)</t>
-  </si>
-  <si>
     <t>1441 E Horsetooth Rd, Fort Collins, CO 80525</t>
   </si>
   <si>
@@ -1039,9 +946,6 @@
     <t>148 W Mountain Ave, Fort Collins, CO 80524</t>
   </si>
   <si>
-    <t>House Margaritas $8.00 \n Gold House Pitcher $17.00 \n​ Classic Margaritas $4.25 \n Classic Pitchers $19 \n Imported Beer $2 \n Domestic Beer $2 \n Tuesdays - Lady's Day (all day) \n Sunday - Men's Day (all day) \n 2 for 1 on House Margs, Classic Margs, Beers, and Wines \n Wed - Buy a Pitcher and Get a Free App 11am-4pm &amp; 6pm-10pm</t>
-  </si>
-  <si>
     <t>outdoor</t>
   </si>
   <si>
@@ -1279,9 +1183,6 @@
     <t>http://emporiumftcollins.com/</t>
   </si>
   <si>
-    <t>Aperol Spritz, Gin and Tonic, Martini, Manhattan, Local Draft Beer, French 75, Negroni, Old Fashioned: $5 \n House Red Wine, House White Wine, Rose of the Day: $6 \n Selection of Happy Hour Foods</t>
-  </si>
-  <si>
     <t>Magic Rat</t>
   </si>
   <si>
@@ -1321,24 +1222,15 @@
     <t>https://www.longhornsteakhouse.com/home</t>
   </si>
   <si>
-    <t>Cocktails: $5 \n Wine: $4 \n Domestic Drafts: $3 \n Chili Cheese Fries: $5 \n Spicy Chicken Bites: $4 \n Fried Pickles: $3</t>
-  </si>
-  <si>
     <t>http://finsconcepts.com/restaurants/smokin-fins-grill/</t>
   </si>
   <si>
-    <t>2 for 1 Drink Specials /n Range of Appetizer Specials /n Buy 1 Sushi Roll, Get Half Off 2nd Roll</t>
-  </si>
-  <si>
     <t>347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525</t>
   </si>
   <si>
     <t>https://www.hopgrenadefoco.com/</t>
   </si>
   <si>
-    <t>$1 Off Drafts \n $5 House Wine \n Happy Hour Food Menu</t>
-  </si>
-  <si>
     <t>Casa Del Matador</t>
   </si>
   <si>
@@ -1348,18 +1240,12 @@
     <t>341 E Foothills Pkwy #110 Fort Collins, CO 80525</t>
   </si>
   <si>
-    <t>Frozen Lime Margarita: $4 \n Frozen Mango Margarita: $6 \n Coin Margarita: $5 \n Coors Light: $4 \n Tecate: $4 \n Wine: $5 \n Street Tacos: $2 for 1, $5 for 3, $8 for 5 \n Wide Selection of Happy Hour Foods</t>
-  </si>
-  <si>
     <t>https://torchystacos.com/location/fort-collins/</t>
   </si>
   <si>
     <t>3280 S COLLEGE AVE FORT COLLINS, CO 80525</t>
   </si>
   <si>
-    <t>$1.50 Off All Beers and Margs \n $0.50 Off Everything Else</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3450 S College Ave, Fort Collins, CO 80525</t>
   </si>
   <si>
@@ -1634,6 +1520,120 @@
   </si>
   <si>
     <t>Tueday: Up to two kids eat free with adult purchase</t>
+  </si>
+  <si>
+    <t>2 for 1 Drink Specials &lt;br&gt; Range of Appetizer Specials &lt;br&gt; Buy 1 Sushi Roll, Get Half Off 2nd Roll</t>
+  </si>
+  <si>
+    <t>$3.50 Drafts &lt;br&gt; $4.50 Wines &lt;br&gt; $5.50 Signature Martinis &lt;br&gt; Half Price Select Apps and Flatbreads</t>
+  </si>
+  <si>
+    <t>Everyday: $1 off Wells, Wines and Drafts &lt;br&gt; Monday &lt;br&gt; $1 off Domestic Bottles &amp; Drafts &lt;br&gt; Tuesday &lt;br&gt; $1 off Microbrews &lt;br&gt; Wednesday &lt;br&gt; $1 off all Gluten Free beer &lt;br&gt; $3 Glass of House Wine &lt;br&gt; Thursday &lt;br&gt; $3 off Draft Pitchers &lt;br&gt; $3 off Bottles of Wine &lt;br&gt; Friday &lt;br&gt; $6 Fat Tire Pints &lt;br&gt; $3 Refills- Keep the Glass &lt;br&gt; Saturday &lt;br&gt; $3 Seasonal beers &lt;br&gt; Sunday &lt;br&gt; $3 Bloody Marys</t>
+  </si>
+  <si>
+    <t>Well Martini: $6.50 &lt;br&gt; 100% Agave Margarita: $6.50 &lt;br&gt; Draught Pine &amp; Bottled Beer: $1.00 off &lt;br&gt; Wine by the Glass &amp; Well Drinks: $1.00 off &lt;br&gt; Range of small bites and appetizers</t>
+  </si>
+  <si>
+    <t>$2 Domestic Bottles &lt;br&gt; $3 Wine &lt;br&gt; $4 Calls &lt;br&gt; $1 off draft beer and cocktails &lt;br&gt; 1/2 off most apps and mini pizzas</t>
+  </si>
+  <si>
+    <t>$1 off Black Bottle Beers &lt;br&gt; $4 well drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tues-Fri: &lt;br&gt; $3 select micros &lt;br&gt; $2.50 domestics &lt;br&gt; $3 wells &lt;br&gt; $4 wine &lt;br&gt; $5-7 select appetizers &lt;br&gt; Saturdays: &lt;br&gt; $12 select micro pitchers &lt;br&gt; $10 domestic pitchers &lt;br&gt; $3 select cocktails &lt;br&gt; $1 mimosas &lt;br&gt; $5 build your own bloody mary bar &lt;br&gt; $14 all you can eat brunch. </t>
+  </si>
+  <si>
+    <t>$5 Margaritas &lt;br&gt; $2 off Wines &lt;br&gt; $3 Bottled Beer</t>
+  </si>
+  <si>
+    <t>$2 wells &lt;br&gt; $3 draughts &lt;br&gt; $4 select wines</t>
+  </si>
+  <si>
+    <t>Frozen Lime Margarita: $4 &lt;br&gt; Frozen Mango Margarita: $6 &lt;br&gt; Coin Margarita: $5 &lt;br&gt; Coors Light: $4 &lt;br&gt; Tecate: $4 &lt;br&gt; Wine: $5 &lt;br&gt; Street Tacos: $2 for 1, $5 for 3, $8 for 5 &lt;br&gt; Wide Selection of Happy Hour Foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.50 18oz house drafts, wells, wine &amp; Potts Teas &lt;br&gt; $3 to $5.50 select appetizers </t>
+  </si>
+  <si>
+    <t>$4 drafts &lt;br&gt; $4.50 wells &lt;br&gt; $6 wine</t>
+  </si>
+  <si>
+    <t>Mugs: $2.75 &lt;br&gt; 20 Ounce Pints: $4 &lt;br&gt; Pitchers: $12 &lt;br&gt; Bargain Priced Pool</t>
+  </si>
+  <si>
+    <t>Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; $2 off select appetizers</t>
+  </si>
+  <si>
+    <t>Premium Wells: $3.50 &lt;br&gt; Martini’s &amp; Manhattan's: $5.00  &lt;br&gt; Select Draft Beers: $3.50 &lt;br&gt; House Wines: $3.50 &lt;br&gt; A range of food specials</t>
+  </si>
+  <si>
+    <t>$2 off martinis &lt;br&gt; $2 off tapas</t>
+  </si>
+  <si>
+    <t>Aperol Spritz, Gin and Tonic, Martini, Manhattan, Local Draft Beer, French 75, Negroni, Old Fashioned: $5 &lt;br&gt; House Red Wine, House White Wine, Rose of the Day: $6 &lt;br&gt; Selection of Happy Hour Foods</t>
+  </si>
+  <si>
+    <t>1/2 off beer and cider &lt;br&gt; Almost wines 1/2 off &lt;br&gt; $6 Mini cheeseboard &lt;br&gt; Other food specials</t>
+  </si>
+  <si>
+    <t>$2 PBR and Bud Lite &lt;br&gt; $3 Wells &lt;br&gt; $3.25 drafts &lt;br&gt; $3.50 wine</t>
+  </si>
+  <si>
+    <t>$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu</t>
+  </si>
+  <si>
+    <t>$2.50 Coors Lights &amp; Coors Drafts &lt;br&gt; $3.50 Select Craft Drafts &lt;br&gt; $4 House Margaritas &lt;br&gt; $3 Wells &lt;br&gt; Free Chips and Salsa w/ Bar purchase</t>
+  </si>
+  <si>
+    <t>$3.25 Domestic Pints &lt;br&gt; $3.00 Shot Specials &lt;br&gt; $3.50 Well Drinks &lt;br&gt; $4.25 Micro Beer Pints &lt;br&gt; $4.00 House Wines &lt;br&gt; $5.00 Margaritas &lt;br&gt; $6.00 House Martinis</t>
+  </si>
+  <si>
+    <t>Cocktails: $5 &lt;br&gt; Martinis: $6 &lt;br&gt; Wine by the Glass: $5 &lt;br&gt; Selected Draft Beers: $3.50</t>
+  </si>
+  <si>
+    <t>House Hot Sake $2.50 (small) $5.00 (large) &lt;br&gt; House Wine $5.00 &lt;br&gt; Sake Bomb $2.00 &lt;br&gt; ODELL IPA (FT. COLLINS) $3.00 &lt;br&gt; Kirin Ichiban (draft) $3.00 &lt;br&gt; New Belgium (draft) $3.00 &lt;br&gt; Corona (bottle) $2.50 &lt;br&gt; Coors Light (bottle) $2.50 &lt;br&gt; Bud Light (bottle) $2.50 &lt;br&gt; Wide range of sushi specials</t>
+  </si>
+  <si>
+    <t>$3 Shots and Drafts &lt;br&gt; $5 Jefe, Del Sol, Pomegranate Marg, MND &amp; Lunch Box</t>
+  </si>
+  <si>
+    <t>Cocktails: $5 &lt;br&gt; Wine: $4 &lt;br&gt; Domestic Drafts: $3 &lt;br&gt; Chili Cheese Fries: $5 &lt;br&gt; Spicy Chicken Bites: $4 &lt;br&gt; Fried Pickles: $3</t>
+  </si>
+  <si>
+    <t>House Margaritas $8.00 &lt;br&gt; Gold House Pitcher $17.00 &lt;br&gt;​ Classic Margaritas $4.25 &lt;br&gt; Classic Pitchers $19 &lt;br&gt; Imported Beer $2 &lt;br&gt; Domestic Beer $2 &lt;br&gt; Tuesdays - Lady's Day (all day) &lt;br&gt; Sunday - Men's Day (all day) &lt;br&gt; 2 for 1 on House Margs, Classic Margs, Beers, and Wines &lt;br&gt; Wed - Buy a Pitcher and Get a Free App 11am-4pm &amp; 6pm-10pm</t>
+  </si>
+  <si>
+    <t>Monday-Friday &lt;br&gt; $1 off wells, wines, and drafts &lt;br&gt; Saturday &lt;br&gt; $1.50 Bud and Coors &lt;br&gt; $2.50 wells and micros &lt;br&gt; $3.50 Guinness &lt;br&gt; $1 off wines &lt;br&gt; Monday &lt;br&gt; $3.50 burger baskets &lt;br&gt; $2.50 pints of 90 Schilling, 5 Barrel, Odell IPA &lt;br&gt; Tuesday &lt;br&gt; $2.50 Guinness pints all day &lt;br&gt; Wednesday &lt;br&gt; $2.50 You Call It 7pm-close &lt;br&gt; Thursday &lt;br&gt; $3 pints w/ $3 bomb shots &lt;br&gt; Sunday &lt;br&gt; $2 Bloody Marys, well vodka drinks, and green chili &lt;br&gt; $2.50 New Belgium</t>
+  </si>
+  <si>
+    <t>$3 craft beer cocktails &lt;br&gt; $3.5 wells &lt;br&gt; $1.5 off Breck and Wynkoop drafts &lt;br&gt; $5 house wines</t>
+  </si>
+  <si>
+    <t>Mule: $7 &lt;br&gt; Martini: $6 &lt;br&gt; Select Cocktails: $6 &lt;br&gt; Season Beer: $6 &lt;br&gt; Wines: $5 &lt;br&gt; Draft Beer: $1.50 off &lt;br&gt; Fish &amp; Chips with Beer: $24.95 &lt;br&gt; Wide range of appetizers</t>
+  </si>
+  <si>
+    <t>$1 Off House Cocktails &lt;br&gt; $5 Mai Tais All Day on Mondays!</t>
+  </si>
+  <si>
+    <t>Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $1 off all drafts &lt;br&gt; $3.50 Wells &lt;br&gt; $5 grilled cheese meals.</t>
+  </si>
+  <si>
+    <t>Drinks &lt;br&gt; $2 Domestics &amp; Well Drinks &lt;br&gt; $3 Flavored Pinnacle &amp; Three Olives Vodka &lt;br&gt; $4 Mile High Spirits &lt;br&gt; Fireside &amp; Fireside Peach Bourbon, Elevate Vodka, Denver Dry Gin, Peg Leg Rum &lt;br&gt; $1 off Craft Drafts &lt;br&gt; Food &lt;br&gt; $2.50 Pork Sammys &lt;br&gt; $3 Poutine</t>
+  </si>
+  <si>
+    <t>$4 draft beer &lt;br&gt; $5 wine &lt;br&gt; $5 select cocktails &lt;br&gt; $4 select appetizers</t>
+  </si>
+  <si>
+    <t>Free pool during Happy Hour and all day Tuesday &lt;br&gt; $2.00 Domestic Drafts &lt;br&gt; $3.00 Select Micro Drafts &lt;br&gt; $3.00 Single/$5.00 Double Wells and Freshies &lt;br&gt; $5.00 Moscow Mules &lt;br&gt; Happy Hour Appetizers: $6.00 Select appetizers Monday thru Friday 2 PM til 6 PM</t>
+  </si>
+  <si>
+    <t>$1.50 Off All Beers and Margs &lt;br&gt; $0.50 Off Everything Else</t>
+  </si>
+  <si>
+    <t>Monday-Sunday 11 am-7 pm: &lt;br&gt; $2 domestics and $6 pitchers &lt;br&gt; $2.50-micros and $8 pitchers &lt;br&gt; $2 wells &lt;br&gt; $2 PBR pints (all day) &lt;br&gt; Monday: &lt;br&gt; Happy Hour All Day &lt;br&gt; Tuesday: &lt;br&gt; 2-for-1 burgers 7pm-11pm &lt;br&gt; $2 select micros 7pm-close &lt;br&gt; Wednesday 7 pm-close: &lt;br&gt; $2.50 New Belgium &lt;br&gt; Thursday 7 pm-close: &lt;br&gt; $2.50 Odell beers &lt;br&gt; $1 tacos 6-11 pm &lt;br&gt; Friday: &lt;br&gt; $6 PBR pitchers and $2.50 Jagermeister &lt;br&gt; Saturday: &lt;br&gt; $4 domestic beer and brat &lt;br&gt; Sunday: &lt;br&gt; $16 wings and pitcher (domestic) &lt;br&gt; $19 wings and pitcher (micro)</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="P84" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V68" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2175,79 +2175,79 @@
         <v>16</v>
       </c>
       <c r="W1" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="X1" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="Y1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="Z1" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="AA1" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="AB1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="AC1" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="AD1" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="AE1" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="AF1" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AG1" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AH1" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AI1" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AJ1" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="AK1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="AL1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="AM1" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="AN1" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="AO1" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="AP1" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="AQ1" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="AR1" t="s">
         <v>17</v>
       </c>
       <c r="AS1" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="AT1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="AU1" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AV1" t="s">
         <v>21</v>
@@ -2257,39 +2257,39 @@
       </c>
       <c r="AY1" s="4"/>
       <c r="BD1" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="BE1" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="BF1" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="BG1" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="BH1" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="BJ1" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="BL1" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="H2">
         <v>1600</v>
@@ -2418,10 +2418,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="AU2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV2" t="b">
         <v>1</v>
@@ -2490,7 +2490,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2498,13 +2498,13 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
         <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>142</v>
@@ -2636,16 +2636,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AU3" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX3" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2706,7 +2706,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
@@ -2802,16 +2802,16 @@
         <v/>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AU4" t="s">
         <v>28</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX4" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2872,13 +2872,13 @@
         <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G5" t="s">
         <v>150</v>
@@ -2968,22 +2968,22 @@
         <v/>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AS5" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT5" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU5" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV5" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX5" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3044,13 +3044,13 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>67</v>
@@ -3098,7 +3098,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W6">
         <f t="shared" si="24"/>
@@ -3185,19 +3185,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="AS6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU6" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV6" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX6" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3258,13 +3258,13 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>111</v>
@@ -3312,7 +3312,7 @@
         <v>2400</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W7">
         <f t="shared" si="24"/>
@@ -3399,19 +3399,19 @@
         <v>9am-12am</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AS7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU7" t="s">
         <v>28</v>
       </c>
       <c r="AV7" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX7" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3472,7 +3472,7 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
@@ -3568,16 +3568,16 @@
         <v/>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AU8" t="s">
         <v>28</v>
       </c>
       <c r="AV8" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX8" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3638,13 +3638,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
         <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G9" t="s">
         <v>179</v>
@@ -3680,7 +3680,7 @@
         <v>1900</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>272</v>
+        <v>499</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="24"/>
@@ -3767,26 +3767,26 @@
         <v/>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AS9" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU9" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX9" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Bar Louie",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3.50 Drafts \n $4.50 Wines \n $5.50 Signature Martinis \n Half Price Select Apps and Flatbreads", 'link':"http://www.barlouie.com/locations/states/colorado/foothills-mall-fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "321 E Foothills Pkwy, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3.50 Drafts &lt;br&gt; $4.50 Wines &lt;br&gt; $5.50 Signature Martinis &lt;br&gt; Half Price Select Apps and Flatbreads", 'link':"http://www.barlouie.com/locations/states/colorado/foothills-mall-fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "321 E Foothills Pkwy, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY9" t="str">
         <f t="shared" si="15"/>
@@ -3840,13 +3840,13 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>58</v>
@@ -3894,7 +3894,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="W10">
         <f t="shared" si="24"/>
@@ -3981,26 +3981,26 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AS10" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU10" t="s">
         <v>28</v>
       </c>
       <c r="AV10" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX10" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Beau Jo's Pizza",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Everyday: $1 off Wells, Wines and Drafts \n Monday \n $1 off Domestic Bottles &amp; Drafts \n Tuesday \n $1 off Microbrews \n Wednesday \n $1 off all Gluten Free beer \n $3 Glass of House Wine \n Thursday \n $3 off Draft Pitchers \n $3 off Bottles of Wine \n Friday \n $6 Fat Tire Pints \n $3 Refills- Keep the Glass \n Saturday \n $3 Seasonal beers \n Sunday \n $3 Bloody Marys", 'link':"https://www.beaujos.com/", 'pricing':"med",   'phone-number': "", 'address': "100 N College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Everyday: $1 off Wells, Wines and Drafts &lt;br&gt; Monday &lt;br&gt; $1 off Domestic Bottles &amp; Drafts &lt;br&gt; Tuesday &lt;br&gt; $1 off Microbrews &lt;br&gt; Wednesday &lt;br&gt; $1 off all Gluten Free beer &lt;br&gt; $3 Glass of House Wine &lt;br&gt; Thursday &lt;br&gt; $3 off Draft Pitchers &lt;br&gt; $3 off Bottles of Wine &lt;br&gt; Friday &lt;br&gt; $6 Fat Tire Pints &lt;br&gt; $3 Refills- Keep the Glass &lt;br&gt; Saturday &lt;br&gt; $3 Seasonal beers &lt;br&gt; Sunday &lt;br&gt; $3 Bloody Marys", 'link':"https://www.beaujos.com/", 'pricing':"med",   'phone-number': "", 'address': "100 N College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY10" t="str">
         <f t="shared" si="15"/>
@@ -4052,15 +4052,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL10" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -4114,7 +4114,7 @@
         <v>2400</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>257</v>
+        <v>501</v>
       </c>
       <c r="W11">
         <f t="shared" si="24"/>
@@ -4201,23 +4201,23 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="AU11" t="s">
         <v>28</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX11" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Big Al's Burgers &amp; Dogs",
     'area': "old",'hours': {
-      'sunday-start':"1600", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"2400"},  'description': "Well Martini: $6.50 \n 100% Agave Margarita: $6.50 \n Draught Pine &amp; Bottled Beer: $1.00 off \n Wine by the Glass &amp; Well Drinks: $1.00 off \n Range of small bites and appetizers", 'link':"http://www.bigalsburgersanddogs.com/", 'pricing':"low",   'phone-number': "", 'address': "140 West Mountain Ave, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"2400"},  'description': "Well Martini: $6.50 &lt;br&gt; 100% Agave Margarita: $6.50 &lt;br&gt; Draught Pine &amp; Bottled Beer: $1.00 off &lt;br&gt; Wine by the Glass &amp; Well Drinks: $1.00 off &lt;br&gt; Range of small bites and appetizers", 'link':"http://www.bigalsburgersanddogs.com/", 'pricing':"low",   'phone-number': "", 'address': "140 West Mountain Ave, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY11" t="str">
         <f t="shared" si="15"/>
@@ -4271,7 +4271,7 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -4367,16 +4367,16 @@
         <v/>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="AU12" t="s">
         <v>28</v>
       </c>
       <c r="AV12" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX12" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4434,19 +4434,19 @@
     </row>
     <row r="13" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="J13">
         <v>1500</v>
@@ -4479,7 +4479,7 @@
         <v>1900</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>289</v>
+        <v>502</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="24"/>
@@ -4566,23 +4566,23 @@
         <v/>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="AU13" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV13" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX13" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "BJ's Restaurant &amp; Brewhouse",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Domestic Bottles \n $3 Wine \n $4 Calls \n $1 off draft beer and cocktails \n 1/2 off most apps and mini pizzas", 'link':"https://www.bjsrestaurants.com/locations/co/fort-collins", 'pricing':"med",   'phone-number': "", 'address': "2670 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Domestic Bottles &lt;br&gt; $3 Wine &lt;br&gt; $4 Calls &lt;br&gt; $1 off draft beer and cocktails &lt;br&gt; 1/2 off most apps and mini pizzas", 'link':"https://www.bjsrestaurants.com/locations/co/fort-collins", 'pricing':"med",   'phone-number': "", 'address': "2670 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY13" t="str">
         <f t="shared" si="15"/>
@@ -4636,13 +4636,13 @@
         <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G14" t="s">
         <v>152</v>
@@ -4690,7 +4690,7 @@
         <v>1600</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>290</v>
+        <v>503</v>
       </c>
       <c r="W14">
         <f t="shared" si="24"/>
@@ -4777,26 +4777,26 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR14" s="5" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="AS14" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU14" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV14" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX14" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Black Bottle Brewing",
     'area': "campus",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1100", 'monday-end':"1600", 'tuesday-start':"1100", 'tuesday-end':"1600", 'wednesday-start':"1100", 'wednesday-end':"1600", 'thursday-start':"1100", 'thursday-end':"1600", 'friday-start':"1100", 'friday-end':"1600", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "$1 off Black Bottle Beers \n $4 well drinks", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1100", 'monday-end':"1600", 'tuesday-start':"1100", 'tuesday-end':"1600", 'wednesday-start':"1100", 'wednesday-end':"1600", 'thursday-start':"1100", 'thursday-end':"1600", 'friday-start':"1100", 'friday-end':"1600", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "$1 off Black Bottle Beers &lt;br&gt; $4 well drinks", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY14" t="str">
         <f t="shared" si="15"/>
@@ -4848,24 +4848,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL14" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="J15">
         <v>1000</v>
@@ -4904,7 +4904,7 @@
         <v>1600</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>292</v>
+        <v>504</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="24"/>
@@ -4991,23 +4991,23 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AU15" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX15" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Blind Pig",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1000", 'monday-end':"1400", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Tues-Fri: \n $3 select micros \n $2.50 domestics \n $3 wells \n $4 wine \n $5-7 select appetizers \n Saturdays: \n $12 select micro pitchers \n $10 domestic pitchers \n $3 select cocktails \n $1 mimosas \n $5 build your own bloody mary bar \n $14 all you can eat brunch. ", 'link':"http://www.blindpigfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "214 Linden St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1000", 'monday-end':"1400", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Tues-Fri: &lt;br&gt; $3 select micros &lt;br&gt; $2.50 domestics &lt;br&gt; $3 wells &lt;br&gt; $4 wine &lt;br&gt; $5-7 select appetizers &lt;br&gt; Saturdays: &lt;br&gt; $12 select micro pitchers &lt;br&gt; $10 domestic pitchers &lt;br&gt; $3 select cocktails &lt;br&gt; $1 mimosas &lt;br&gt; $5 build your own bloody mary bar &lt;br&gt; $14 all you can eat brunch. ", 'link':"http://www.blindpigfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "214 Linden St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY15" t="str">
         <f t="shared" si="15"/>
@@ -5059,7 +5059,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL15" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:64" ht="145" x14ac:dyDescent="0.35">
@@ -5067,13 +5067,13 @@
         <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G16" t="s">
         <v>181</v>
@@ -5109,7 +5109,7 @@
         <v>1800</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>293</v>
+        <v>505</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="24"/>
@@ -5196,26 +5196,26 @@
         <v/>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AS16" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU16" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX16" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Blue Agave",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margaritas \n $2 off Wines \n $3 Bottled Beer", 'link':"http://www.blueagavegrillcolorado.com/menu/", 'pricing':"med",   'phone-number': "", 'address': "201 S College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margaritas &lt;br&gt; $2 off Wines &lt;br&gt; $3 Bottled Beer", 'link':"http://www.blueagavegrillcolorado.com/menu/", 'pricing':"med",   'phone-number': "", 'address': "201 S College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY16" t="str">
         <f t="shared" si="15"/>
@@ -5266,19 +5266,19 @@
     </row>
     <row r="17" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G17" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="P17">
         <v>1500</v>
@@ -5299,7 +5299,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="24"/>
@@ -5386,20 +5386,20 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AU17" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX17" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Bondi's Beach Bar",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$2 wells \n $3 draughts \n $4 select wines", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "11 Old Town Square #120, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$2 wells &lt;br&gt; $3 draughts &lt;br&gt; $4 select wines", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "11 Old Town Square #120, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY17" t="str">
         <f t="shared" si="15"/>
@@ -5453,7 +5453,7 @@
         <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
         <v>78</v>
@@ -5549,16 +5549,16 @@
         <v/>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="AU18" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV18" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX18" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5617,21 +5617,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL18" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="AK19" t="str">
         <f t="shared" si="38"/>
@@ -5727,21 +5727,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL19" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>72</v>
@@ -5831,19 +5831,19 @@
         <v/>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="AS20" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU20" t="s">
         <v>28</v>
       </c>
       <c r="AV20" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX20" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="21" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G21" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H21">
         <v>1600</v>
@@ -5958,7 +5958,7 @@
         <v>1800</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="W21">
         <f t="shared" si="46"/>
@@ -6045,26 +6045,26 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR21" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="AS21" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU21" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX21" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Casa Del Matador",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Frozen Lime Margarita: $4 \n Frozen Mango Margarita: $6 \n Coin Margarita: $5 \n Coors Light: $4 \n Tecate: $4 \n Wine: $5 \n Street Tacos: $2 for 1, $5 for 3, $8 for 5 \n Wide Selection of Happy Hour Foods", 'link':"http://matadorrestaurants.com/mexican-food-fort-collins", 'pricing':"med",   'phone-number': "", 'address': "341 E Foothills Pkwy #110 Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Frozen Lime Margarita: $4 &lt;br&gt; Frozen Mango Margarita: $6 &lt;br&gt; Coin Margarita: $5 &lt;br&gt; Coors Light: $4 &lt;br&gt; Tecate: $4 &lt;br&gt; Wine: $5 &lt;br&gt; Street Tacos: $2 for 1, $5 for 3, $8 for 5 &lt;br&gt; Wide Selection of Happy Hour Foods", 'link':"http://matadorrestaurants.com/mexican-food-fort-collins", 'pricing':"med",   'phone-number': "", 'address': "341 E Foothills Pkwy #110 Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY21" t="str">
         <f t="shared" si="15"/>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="22" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="H22">
         <v>2100</v>
@@ -6166,7 +6166,7 @@
         <v>2300</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
       <c r="W22">
         <f t="shared" si="46"/>
@@ -6253,26 +6253,26 @@
         <v>9pm-11pm</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="AS22" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU22" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV22" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX22" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "CB &amp; Potts Restaurant &amp; Craft Beer - Collindale",
     'area': "",'hours': {
-      'sunday-start':"2100", 'sunday-end':"2300", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2300"},  'description': "$3.50 18oz house drafts, wells, wine &amp; Potts Teas \n $3 to $5.50 select appetizers ", 'link':"https://www.cbpotts.com/locations/collindale/", 'pricing':"med",   'phone-number': "", 'address': "1441 E Horsetooth Rd, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"2100", 'sunday-end':"2300", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2300"},  'description': "$3.50 18oz house drafts, wells, wine &amp; Potts Teas &lt;br&gt; $3 to $5.50 select appetizers ", 'link':"https://www.cbpotts.com/locations/collindale/", 'pricing':"med",   'phone-number': "", 'address': "1441 E Horsetooth Rd, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY22" t="str">
         <f t="shared" si="15"/>
@@ -6324,21 +6324,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL22" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
         <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>
@@ -6374,7 +6374,7 @@
         <v>1800</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>297</v>
+        <v>509</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="46"/>
@@ -6461,26 +6461,26 @@
         <v/>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AS23" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU23" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV23" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX23" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "CB &amp; Potts Restaurant &amp; Craft Beer - Foothills",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 drafts \n $4.50 wells \n $6 wine", 'link':"https://www.cbpotts.com/locations/foothills/", 'pricing':"med",   'phone-number': "", 'address': "195 E Foothills Parkway, Fort Collins CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 drafts &lt;br&gt; $4.50 wells &lt;br&gt; $6 wine", 'link':"https://www.cbpotts.com/locations/foothills/", 'pricing':"med",   'phone-number': "", 'address': "195 E Foothills Parkway, Fort Collins CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY23" t="str">
         <f t="shared" si="15"/>
@@ -6534,7 +6534,7 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
@@ -6630,19 +6630,19 @@
         <v/>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AS24" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AU24" t="s">
         <v>28</v>
       </c>
       <c r="AV24" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX24" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6703,13 +6703,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -6721,7 +6721,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="46"/>
@@ -6808,19 +6808,19 @@
         <v/>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AS25" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU25" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV25" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX25" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6881,13 +6881,13 @@
         <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G26" t="s">
         <v>155</v>
@@ -6977,16 +6977,16 @@
         <v/>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="AU26" t="s">
         <v>28</v>
       </c>
       <c r="AV26" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX26" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7047,13 +7047,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>29</v>
@@ -7089,7 +7089,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>234</v>
+        <v>510</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="46"/>
@@ -7176,29 +7176,29 @@
         <v/>
       </c>
       <c r="AR27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AS27" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT27" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU27" t="s">
         <v>28</v>
       </c>
       <c r="AV27" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW27" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX27" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Coopersmith's Pub &amp; Brewing",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Mugs: $2.75 \n 20 Ounce Pints: $4 \n Pitchers: $12 \n Bargain Priced Pool", 'link':"https://coopersmithspub.com", 'pricing':"med",   'phone-number': "", 'address': "5 Old Town Sq, Fort Collins 80524", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Mugs: $2.75 &lt;br&gt; 20 Ounce Pints: $4 &lt;br&gt; Pitchers: $12 &lt;br&gt; Bargain Priced Pool", 'link':"https://coopersmithspub.com", 'pricing':"med",   'phone-number': "", 'address': "5 Old Town Sq, Fort Collins 80524", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY27" t="str">
         <f t="shared" si="15"/>
@@ -7252,13 +7252,13 @@
         <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
         <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G28" t="s">
         <v>158</v>
@@ -7282,7 +7282,7 @@
         <v>2100</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>299</v>
+        <v>511</v>
       </c>
       <c r="W28">
         <f t="shared" si="46"/>
@@ -7369,26 +7369,26 @@
         <v/>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="AS28" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU28" t="s">
         <v>28</v>
       </c>
       <c r="AV28" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX28" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "CopperMuse Distillery",
     'area': "old",'hours': {
-      'sunday-start':"1200", 'sunday-end':"1900", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"2100", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Sundays: $2 off Bloody Mary’s \n Wed-Thur: \n $6 select cocktails including mules \n $2 off select appetizers", 'link':"http://www.coppermuse.com/", 'pricing':"med",   'phone-number': "", 'address': "244 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1200", 'sunday-end':"1900", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"2100", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; $2 off select appetizers", 'link':"http://www.coppermuse.com/", 'pricing':"med",   'phone-number': "", 'address': "244 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY28" t="str">
         <f t="shared" si="15"/>
@@ -7442,13 +7442,13 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>79</v>
@@ -7496,7 +7496,7 @@
         <v>2400</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="W29">
         <f t="shared" si="46"/>
@@ -7583,26 +7583,26 @@
         <v>10pm-12am</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="AS29" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU29" t="s">
         <v>28</v>
       </c>
       <c r="AV29" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX29" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
     'name': "Crown Pub",
     'area': "old",'hours': {
-      'sunday-start':"2200", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"2200", 'friday-end':"2400", 'saturday-start':"2200", 'saturday-end':"2400"},  'description': "Premium Wells: $3.50 \n Martini’s &amp; Manhattan's: $5.00  \n Select Draft Beers: $3.50 \n House Wines: $3.50 \n A range of food specials", 'link':"http://www.crownpub.net", 'pricing':"med",   'phone-number': "", 'address': "134 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"2200", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"2200", 'friday-end':"2400", 'saturday-start':"2200", 'saturday-end':"2400"},  'description': "Premium Wells: $3.50 &lt;br&gt; Martini’s &amp; Manhattan's: $5.00  &lt;br&gt; Select Draft Beers: $3.50 &lt;br&gt; House Wines: $3.50 &lt;br&gt; A range of food specials", 'link':"http://www.crownpub.net", 'pricing':"med",   'phone-number': "", 'address': "134 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY29" t="str">
         <f t="shared" si="15"/>
@@ -7653,16 +7653,16 @@
     </row>
     <row r="30" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G30" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="J30">
         <v>1500</v>
@@ -7695,7 +7695,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="46"/>
@@ -7782,7 +7782,7 @@
         <v/>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="AV30" t="b">
         <v>1</v>
@@ -7847,21 +7847,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL30" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="46"/>
@@ -7948,7 +7948,7 @@
         <v/>
       </c>
       <c r="AU31" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV31" t="b">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL31" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -8021,13 +8021,13 @@
         <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
         <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G32" t="s">
         <v>187</v>
@@ -8147,19 +8147,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AS32" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU32" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV32" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX32" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8220,13 +8220,13 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
         <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>88</v>
@@ -8316,16 +8316,16 @@
         <v/>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="AU33" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV33" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX33" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8386,13 +8386,13 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D34" t="s">
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>70</v>
@@ -8482,16 +8482,16 @@
         <v/>
       </c>
       <c r="AR34" s="2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="AU34" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV34" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX34" s="4" t="str">
         <f t="shared" ref="AX34:AX65" si="60">_xlfn.CONCAT("{
@@ -8556,13 +8556,13 @@
         <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G35" t="s">
         <v>161</v>
@@ -8652,19 +8652,19 @@
         <v/>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AS35" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU35" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV35" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX35" s="4" t="str">
         <f t="shared" si="60"/>
@@ -8722,19 +8722,19 @@
     </row>
     <row r="36" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D36" t="s">
         <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="J36">
         <v>1630</v>
@@ -8767,7 +8767,7 @@
         <v>1900</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="46"/>
@@ -8854,23 +8854,23 @@
         <v/>
       </c>
       <c r="AR36" s="2" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AU36" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV36" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX36" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Elliot's Martini Bar",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1630", 'monday-end':"1900", 'tuesday-start':"1630", 'tuesday-end':"1900", 'wednesday-start':"1630", 'wednesday-end':"1900", 'thursday-start':"1630", 'thursday-end':"1900", 'friday-start':"1630", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2 off martinis \n $2 off tapas", 'link':"http://www.elliotsmartini.com/", 'pricing':"med",   'phone-number': "", 'address': "234 Linden St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1630", 'monday-end':"1900", 'tuesday-start':"1630", 'tuesday-end':"1900", 'wednesday-start':"1630", 'wednesday-end':"1900", 'thursday-start':"1630", 'thursday-end':"1900", 'friday-start':"1630", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2 off martinis &lt;br&gt; $2 off tapas", 'link':"http://www.elliotsmartini.com/", 'pricing':"med",   'phone-number': "", 'address': "234 Linden St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY36" t="str">
         <f t="shared" si="61"/>
@@ -8921,19 +8921,19 @@
     </row>
     <row r="37" spans="2:64" ht="160.5" x14ac:dyDescent="0.45">
       <c r="B37" s="10" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D37" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E37" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="H37">
         <v>1500</v>
@@ -8978,7 +8978,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="W37">
         <f t="shared" si="46"/>
@@ -9065,23 +9065,23 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="AU37" t="s">
         <v>28</v>
       </c>
       <c r="AV37" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW37" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX37" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Emporium Kitchen and Wine Market",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Aperol Spritz, Gin and Tonic, Martini, Manhattan, Local Draft Beer, French 75, Negroni, Old Fashioned: $5 \n House Red Wine, House White Wine, Rose of the Day: $6 \n Selection of Happy Hour Foods", 'link':"http://emporiumftcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "378 Walnut St, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Aperol Spritz, Gin and Tonic, Martini, Manhattan, Local Draft Beer, French 75, Negroni, Old Fashioned: $5 &lt;br&gt; House Red Wine, House White Wine, Rose of the Day: $6 &lt;br&gt; Selection of Happy Hour Foods", 'link':"http://emporiumftcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "378 Walnut St, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY37" t="str">
         <f t="shared" si="61"/>
@@ -9132,16 +9132,16 @@
     </row>
     <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="AK38" t="str">
         <f t="shared" si="38"/>
@@ -9172,7 +9172,7 @@
         <v/>
       </c>
       <c r="AU38" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV38" t="b">
         <v>0</v>
@@ -9237,21 +9237,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G39" t="s">
         <v>189</v>
@@ -9341,16 +9341,16 @@
         <v/>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="AU39" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV39" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX39" s="4" t="str">
         <f t="shared" si="60"/>
@@ -9411,7 +9411,7 @@
         <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
@@ -9465,7 +9465,7 @@
         <v>1800</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W40">
         <f t="shared" si="70"/>
@@ -9552,16 +9552,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR40" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="AU40" t="s">
         <v>28</v>
       </c>
       <c r="AV40" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX40" s="4" t="str">
         <f t="shared" si="60"/>
@@ -9622,7 +9622,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D41" t="s">
         <v>75</v>
@@ -9718,16 +9718,16 @@
         <v/>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="AU41" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV41" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX41" s="4" t="str">
         <f t="shared" si="60"/>
@@ -9785,19 +9785,19 @@
     </row>
     <row r="42" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="H42">
         <v>1400</v>
@@ -9842,7 +9842,7 @@
         <v>1800</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="W42">
         <f t="shared" si="70"/>
@@ -9929,19 +9929,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="AS42" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU42" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV42" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX42" s="4" t="str">
         <f t="shared" si="60"/>
@@ -9999,19 +9999,19 @@
     </row>
     <row r="43" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D43" t="s">
         <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G43" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="J43">
         <v>1600</v>
@@ -10044,7 +10044,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>311</v>
+        <v>515</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="70"/>
@@ -10131,23 +10131,23 @@
         <v/>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="AU43" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV43" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX43" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Fox and Crow",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "1/2 off beer and cider \n Almost wines 1/2 off \n $6 Mini cheeseboard \n Other food specials", 'link':"http://www.thefoxandthecrow.net/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Suite #9, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "1/2 off beer and cider &lt;br&gt; Almost wines 1/2 off &lt;br&gt; $6 Mini cheeseboard &lt;br&gt; Other food specials", 'link':"http://www.thefoxandthecrow.net/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Suite #9, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY43" t="str">
         <f t="shared" si="61"/>
@@ -10201,7 +10201,7 @@
         <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
         <v>53</v>
@@ -10297,16 +10297,16 @@
         <v/>
       </c>
       <c r="AR44" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AU44" t="s">
         <v>28</v>
       </c>
       <c r="AV44" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX44" s="4" t="str">
         <f t="shared" si="60"/>
@@ -10367,7 +10367,7 @@
         <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
@@ -10463,16 +10463,16 @@
         <v/>
       </c>
       <c r="AR45" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AU45" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV45" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX45" s="4" t="str">
         <f t="shared" si="60"/>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="46" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G46" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="AK46" t="str">
         <f t="shared" si="38"/>
@@ -10570,7 +10570,7 @@
         <v/>
       </c>
       <c r="AU46" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV46" t="b">
         <v>0</v>
@@ -10635,7 +10635,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL46" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -10643,13 +10643,13 @@
         <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D47" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E47" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G47" t="s">
         <v>195</v>
@@ -10739,19 +10739,19 @@
         <v/>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AS47" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU47" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV47" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX47" s="4" t="str">
         <f t="shared" si="60"/>
@@ -10809,19 +10809,19 @@
     </row>
     <row r="48" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G48" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J48">
         <v>1600</v>
@@ -10860,7 +10860,7 @@
         <v>1900</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>314</v>
+        <v>516</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="71"/>
@@ -10947,23 +10947,23 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="AU48" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV48" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW48" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX48" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "High Point",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2 PBR and Bud Lite \n $3 Wells \n $3.25 drafts \n $3.50 wine", 'link':"http://www.highpointbar.com/", 'pricing':"med",   'phone-number': "", 'address': "146 N College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2 PBR and Bud Lite &lt;br&gt; $3 Wells &lt;br&gt; $3.25 drafts &lt;br&gt; $3.50 wine", 'link':"http://www.highpointbar.com/", 'pricing':"med",   'phone-number': "", 'address': "146 N College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY48" t="str">
         <f t="shared" si="61"/>
@@ -11014,19 +11014,19 @@
     </row>
     <row r="49" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="C49" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="E49" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="H49">
         <v>1600</v>
@@ -11059,7 +11059,7 @@
         <v>1800</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="W49">
         <f t="shared" si="71"/>
@@ -11146,26 +11146,26 @@
         <v/>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="AS49" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU49" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV49" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW49" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX49" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Hop Grenade",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off Drafts \n $5 House Wine \n Happy Hour Food Menu", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY49" t="str">
         <f t="shared" si="61"/>
@@ -11219,13 +11219,13 @@
         <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
         <v>197</v>
@@ -11315,22 +11315,22 @@
         <v/>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="AS50" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT50" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU50" t="s">
         <v>28</v>
       </c>
       <c r="AV50" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW50" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX50" s="4" t="str">
         <f t="shared" si="60"/>
@@ -11391,13 +11391,13 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D51" t="s">
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>48</v>
@@ -11487,16 +11487,16 @@
         <v/>
       </c>
       <c r="AR51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AU51" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV51" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW51" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX51" s="4" t="str">
         <f t="shared" si="60"/>
@@ -11557,7 +11557,7 @@
         <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D52" t="s">
         <v>53</v>
@@ -11611,7 +11611,7 @@
         <v>2000</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="W52">
         <f t="shared" si="71"/>
@@ -11698,26 +11698,26 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR52" s="2" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="AS52" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU52" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV52" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW52" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX52" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Illegal Pete's",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"2000", 'monday-start':"1500", 'monday-end':"2000", 'tuesday-start':"1500", 'tuesday-end':"2000", 'wednesday-start':"1500", 'wednesday-end':"2000", 'thursday-start':"1500", 'thursday-end':"2000", 'friday-start':"1500", 'friday-end':"2000", 'saturday-start':"1500", 'saturday-end':"2000"},  'description': "$2.50 Coors Lights &amp; Coors Drafts \n $3.50 Select Craft Drafts \n $4 House Margaritas \n $3 Wells \n Free Chips and Salsa w/ Bar purchase", 'link':"http://www.illegalpetes.com/fort-collins-old-town", 'pricing':"low",   'phone-number': "", 'address': "320 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"2000", 'monday-start':"1500", 'monday-end':"2000", 'tuesday-start':"1500", 'tuesday-end':"2000", 'wednesday-start':"1500", 'wednesday-end':"2000", 'thursday-start':"1500", 'thursday-end':"2000", 'friday-start':"1500", 'friday-end':"2000", 'saturday-start':"1500", 'saturday-end':"2000"},  'description': "$2.50 Coors Lights &amp; Coors Drafts &lt;br&gt; $3.50 Select Craft Drafts &lt;br&gt; $4 House Margaritas &lt;br&gt; $3 Wells &lt;br&gt; Free Chips and Salsa w/ Bar purchase", 'link':"http://www.illegalpetes.com/fort-collins-old-town", 'pricing':"low",   'phone-number': "", 'address': "320 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY52" t="str">
         <f t="shared" si="61"/>
@@ -11768,16 +11768,16 @@
     </row>
     <row r="53" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
         <v>483</v>
-      </c>
-      <c r="G53" t="s">
-        <v>521</v>
       </c>
       <c r="AK53" t="str">
         <f t="shared" si="38"/>
@@ -11808,7 +11808,7 @@
         <v/>
       </c>
       <c r="AU53" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV53" t="b">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL53" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -11881,13 +11881,13 @@
         <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D54" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
         <v>199</v>
@@ -11977,16 +11977,16 @@
         <v/>
       </c>
       <c r="AR54" s="2" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="AU54" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV54" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW54" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX54" s="4" t="str">
         <f t="shared" si="60"/>
@@ -12047,13 +12047,13 @@
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D55" t="s">
         <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>136</v>
@@ -12101,7 +12101,7 @@
         <v>1900</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>263</v>
+        <v>519</v>
       </c>
       <c r="W55">
         <f t="shared" si="72"/>
@@ -12188,23 +12188,23 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="AU55" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV55" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW55" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX55" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Island Grill",
     'area': "midtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "$3.25 Domestic Pints \n $3.00 Shot Specials \n $3.50 Well Drinks \n $4.25 Micro Beer Pints \n $4.00 House Wines \n $5.00 Margaritas \n $6.00 House Martinis", 'link':"http://www.islandgrillrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Unit 12, Fort Collins 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "$3.25 Domestic Pints &lt;br&gt; $3.00 Shot Specials &lt;br&gt; $3.50 Well Drinks &lt;br&gt; $4.25 Micro Beer Pints &lt;br&gt; $4.00 House Wines &lt;br&gt; $5.00 Margaritas &lt;br&gt; $6.00 House Martinis", 'link':"http://www.islandgrillrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Unit 12, Fort Collins 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY55" t="str">
         <f t="shared" si="61"/>
@@ -12256,7 +12256,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL55" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="2:64" ht="145" x14ac:dyDescent="0.35">
@@ -12264,7 +12264,7 @@
         <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D56" t="s">
         <v>93</v>
@@ -12318,7 +12318,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W56">
         <f t="shared" si="72"/>
@@ -12405,19 +12405,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AS56" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU56" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV56" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW56" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX56" s="4" t="str">
         <f t="shared" si="60"/>
@@ -12478,7 +12478,7 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
@@ -12532,7 +12532,7 @@
         <v>1830</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>239</v>
+        <v>520</v>
       </c>
       <c r="W57">
         <f t="shared" si="72"/>
@@ -12619,26 +12619,26 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AS57" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU57" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV57" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX57" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Jay's Bistro",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1830", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "Cocktails: $5 \n Martinis: $6 \n Wine by the Glass: $5 \n Selected Draft Beers: $3.50", 'link':"http://www.jaysbistro.net/", 'pricing':"high",   'phone-number': "", 'address': "135 W Oak St, Fort Collins 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1830", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "Cocktails: $5 &lt;br&gt; Martinis: $6 &lt;br&gt; Wine by the Glass: $5 &lt;br&gt; Selected Draft Beers: $3.50", 'link':"http://www.jaysbistro.net/", 'pricing':"high",   'phone-number': "", 'address': "135 W Oak St, Fort Collins 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY57" t="str">
         <f t="shared" si="61"/>
@@ -12692,19 +12692,19 @@
         <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s">
         <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>259</v>
+        <v>521</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="72"/>
@@ -12791,26 +12791,26 @@
         <v/>
       </c>
       <c r="AR58" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="AS58" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU58" t="s">
         <v>28</v>
       </c>
       <c r="AV58" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX58" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Jeju Restaurant",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "House Hot Sake $2.50 (small) $5.00 (large) \n House Wine $5.00 \n Sake Bomb $2.00 \n ODELL IPA (FT. COLLINS) $3.00 \n Kirin Ichiban (draft) $3.00 \n New Belgium (draft) $3.00 \n Corona (bottle) $2.50 \n Coors Light (bottle) $2.50 \n Bud Light (bottle) $2.50 \n Wide range of sushi specials", 'link':"http://www.sushijeju.com", 'pricing':"med",   'phone-number': "", 'address': "238 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "House Hot Sake $2.50 (small) $5.00 (large) &lt;br&gt; House Wine $5.00 &lt;br&gt; Sake Bomb $2.00 &lt;br&gt; ODELL IPA (FT. COLLINS) $3.00 &lt;br&gt; Kirin Ichiban (draft) $3.00 &lt;br&gt; New Belgium (draft) $3.00 &lt;br&gt; Corona (bottle) $2.50 &lt;br&gt; Coors Light (bottle) $2.50 &lt;br&gt; Bud Light (bottle) $2.50 &lt;br&gt; Wide range of sushi specials", 'link':"http://www.sushijeju.com", 'pricing':"med",   'phone-number': "", 'address': "238 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY58" t="str">
         <f t="shared" si="61"/>
@@ -12864,7 +12864,7 @@
         <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D59" t="s">
         <v>132</v>
@@ -12960,16 +12960,16 @@
         <v/>
       </c>
       <c r="AR59" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="AU59" t="s">
         <v>28</v>
       </c>
       <c r="AV59" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX59" s="4" t="str">
         <f t="shared" si="60"/>
@@ -13030,7 +13030,7 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
         <v>96</v>
@@ -13126,16 +13126,16 @@
         <v/>
       </c>
       <c r="AR60" s="2" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="AU60" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV60" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX60" s="4" t="str">
         <f t="shared" si="60"/>
@@ -13196,13 +13196,13 @@
         <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D61" t="s">
         <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
         <v>165</v>
@@ -13232,7 +13232,7 @@
         <v>1800</v>
       </c>
       <c r="V61" s="13" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="72"/>
@@ -13319,26 +13319,26 @@
         <v/>
       </c>
       <c r="AR61" s="2" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AS61" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU61" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV61" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX61" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "La Luz Mexican Grill",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Shots and Drafts \n $5 Jefe, Del Sol, Pomegranate Marg, MND &amp; Lunch Box", 'link':"http://www.laluzgrill.com", 'pricing':"med",   'phone-number': "", 'address': "200 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Shots and Drafts &lt;br&gt; $5 Jefe, Del Sol, Pomegranate Marg, MND &amp; Lunch Box", 'link':"http://www.laluzgrill.com", 'pricing':"med",   'phone-number': "", 'address': "200 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY61" t="str">
         <f t="shared" si="61"/>
@@ -13389,19 +13389,19 @@
     </row>
     <row r="62" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="E62" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="H62">
         <v>1600</v>
@@ -13440,7 +13440,7 @@
         <v>1900</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="W62">
         <f t="shared" si="72"/>
@@ -13527,23 +13527,23 @@
         <v/>
       </c>
       <c r="AR62" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="AU62" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV62" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX62" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Longhorn Steakhouse",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Cocktails: $5 \n Wine: $4 \n Domestic Drafts: $3 \n Chili Cheese Fries: $5 \n Spicy Chicken Bites: $4 \n Fried Pickles: $3", 'link':"https://www.longhornsteakhouse.com/home", 'pricing':"med",   'phone-number': "", 'address': " 3450 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Cocktails: $5 &lt;br&gt; Wine: $4 &lt;br&gt; Domestic Drafts: $3 &lt;br&gt; Chili Cheese Fries: $5 &lt;br&gt; Spicy Chicken Bites: $4 &lt;br&gt; Fried Pickles: $3", 'link':"https://www.longhornsteakhouse.com/home", 'pricing':"med",   'phone-number': "", 'address': " 3450 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY62" t="str">
         <f t="shared" si="61"/>
@@ -13597,13 +13597,13 @@
         <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
         <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>108</v>
@@ -13651,7 +13651,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="14" t="s">
-        <v>337</v>
+        <v>524</v>
       </c>
       <c r="W63">
         <f t="shared" si="72"/>
@@ -13738,26 +13738,26 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="AS63" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU63" t="s">
         <v>28</v>
       </c>
       <c r="AV63" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX63" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Los Tarascos",
     'area': "campus",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2200", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1100", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "House Margaritas $8.00 \n Gold House Pitcher $17.00 \n​ Classic Margaritas $4.25 \n Classic Pitchers $19 \n Imported Beer $2 \n Domestic Beer $2 \n Tuesdays - Lady's Day (all day) \n Sunday - Men's Day (all day) \n 2 for 1 on House Margs, Classic Margs, Beers, and Wines \n Wed - Buy a Pitcher and Get a Free App 11am-4pm &amp; 6pm-10pm", 'link':"http://www.lostaracos.com", 'pricing':"med",   'phone-number': "", 'address': "626 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1100", 'sunday-end':"2200", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1100", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "House Margaritas $8.00 &lt;br&gt; Gold House Pitcher $17.00 &lt;br&gt;​ Classic Margaritas $4.25 &lt;br&gt; Classic Pitchers $19 &lt;br&gt; Imported Beer $2 &lt;br&gt; Domestic Beer $2 &lt;br&gt; Tuesdays - Lady's Day (all day) &lt;br&gt; Sunday - Men's Day (all day) &lt;br&gt; 2 for 1 on House Margs, Classic Margs, Beers, and Wines &lt;br&gt; Wed - Buy a Pitcher and Get a Free App 11am-4pm &amp; 6pm-10pm", 'link':"http://www.lostaracos.com", 'pricing':"med",   'phone-number': "", 'address': "626 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY63" t="str">
         <f t="shared" si="61"/>
@@ -13808,19 +13808,19 @@
     </row>
     <row r="64" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D64" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H64">
         <v>1100</v>
@@ -13865,7 +13865,7 @@
         <v>1900</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>320</v>
+        <v>525</v>
       </c>
       <c r="W64">
         <f t="shared" si="72"/>
@@ -13952,23 +13952,23 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="AU64" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV64" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX64" s="4" t="str">
         <f t="shared" si="60"/>
         <v>{
     'name': "Lucky Joes",
     'area': "old",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Monday-Friday \n $1 off wells, wines, and drafts \n Saturday \n $1.50 Bud and Coors \n $2.50 wells and micros \n $3.50 Guinness \n $1 off wines \n Monday \n $3.50 burger baskets \n $2.50 pints of 90 Schilling, 5 Barrel, Odell IPA \n Tuesday \n $2.50 Guinness pints all day \n Wednesday \n $2.50 You Call It 7pm-close \n Thursday \n $3 pints w/ $3 bomb shots \n Sunday \n $2 Bloody Marys, well vodka drinks, and green chili \n $2.50 New Belgium", 'link':"http://www.luckyjoes.com/", 'pricing':"med",   'phone-number': "", 'address': "25 Old Town Square, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Monday-Friday &lt;br&gt; $1 off wells, wines, and drafts &lt;br&gt; Saturday &lt;br&gt; $1.50 Bud and Coors &lt;br&gt; $2.50 wells and micros &lt;br&gt; $3.50 Guinness &lt;br&gt; $1 off wines &lt;br&gt; Monday &lt;br&gt; $3.50 burger baskets &lt;br&gt; $2.50 pints of 90 Schilling, 5 Barrel, Odell IPA &lt;br&gt; Tuesday &lt;br&gt; $2.50 Guinness pints all day &lt;br&gt; Wednesday &lt;br&gt; $2.50 You Call It 7pm-close &lt;br&gt; Thursday &lt;br&gt; $3 pints w/ $3 bomb shots &lt;br&gt; Sunday &lt;br&gt; $2 Bloody Marys, well vodka drinks, and green chili &lt;br&gt; $2.50 New Belgium", 'link':"http://www.luckyjoes.com/", 'pricing':"med",   'phone-number': "", 'address': "25 Old Town Square, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY64" t="str">
         <f t="shared" si="61"/>
@@ -14019,19 +14019,19 @@
     </row>
     <row r="65" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="72"/>
@@ -14118,19 +14118,19 @@
         <v/>
       </c>
       <c r="AR65" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="AS65" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU65" t="s">
         <v>28</v>
       </c>
       <c r="AV65" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX65" s="4" t="str">
         <f t="shared" si="60"/>
@@ -14188,19 +14188,19 @@
     </row>
     <row r="66" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D66" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E66" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="H66">
         <v>1500</v>
@@ -14245,7 +14245,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>324</v>
+        <v>526</v>
       </c>
       <c r="W66">
         <f t="shared" si="72"/>
@@ -14332,16 +14332,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR66" s="2" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="AU66" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV66" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX66" s="4" t="str">
         <f t="shared" ref="AX66:AX97" si="86">_xlfn.CONCAT("{
@@ -14352,7 +14352,7 @@
         <v>{
     'name': "Mainline",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 craft beer cocktails \n $3.5 wells \n $1.5 off Breck and Wynkoop drafts \n $5 house wines", 'link':"http://www.mainlinefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "125 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 craft beer cocktails &lt;br&gt; $3.5 wells &lt;br&gt; $1.5 off Breck and Wynkoop drafts &lt;br&gt; $5 house wines", 'link':"http://www.mainlinefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "125 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY66" t="str">
         <f t="shared" ref="AY66:AY97" si="87">IF(AS66&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -14406,10 +14406,10 @@
         <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D67" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E67" t="s">
         <v>54</v>
@@ -14502,22 +14502,22 @@
         <v/>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AS67" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT67" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU67" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV67" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX67" s="4" t="str">
         <f t="shared" si="86"/>
@@ -14578,7 +14578,7 @@
         <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D68" t="s">
         <v>63</v>
@@ -14674,16 +14674,16 @@
         <v/>
       </c>
       <c r="AR68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AU68" t="s">
         <v>28</v>
       </c>
       <c r="AV68" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX68" s="4" t="str">
         <f t="shared" si="86"/>
@@ -14744,13 +14744,13 @@
         <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
         <v>188</v>
       </c>
       <c r="E69" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G69" t="s">
         <v>202</v>
@@ -14840,16 +14840,16 @@
         <v/>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AU69" t="s">
         <v>28</v>
       </c>
       <c r="AV69" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX69" s="4" t="str">
         <f t="shared" si="86"/>
@@ -14907,19 +14907,19 @@
     </row>
     <row r="70" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
         <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="72"/>
@@ -15006,19 +15006,19 @@
         <v/>
       </c>
       <c r="AR70" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="AS70" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU70" t="s">
         <v>28</v>
       </c>
       <c r="AV70" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX70" s="4" t="str">
         <f t="shared" si="86"/>
@@ -15077,7 +15077,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL70" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="2:64" ht="145" x14ac:dyDescent="0.35">
@@ -15085,7 +15085,7 @@
         <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
         <v>104</v>
@@ -15139,7 +15139,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>260</v>
+        <v>527</v>
       </c>
       <c r="W71">
         <f t="shared" si="72"/>
@@ -15226,26 +15226,26 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="AS71" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU71" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV71" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX71" s="4" t="str">
         <f t="shared" si="86"/>
         <v>{
     'name': "Moot House",
     'area': "midtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Mule: $7 /n Martini: $6 \n Select Cocktails: $6 \n Season Beer: $6 \n Wines: $5 \n Draft Beer: $1.50 off \n Fish &amp; Chips with Beer: $24.95 \n Wide range of appetizers", 'link':"http://www.themoothouse.com/", 'pricing':"high",   'phone-number': "", 'address': "2626 S College Ave, Fort Collins 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Mule: $7 &lt;br&gt; Martini: $6 &lt;br&gt; Select Cocktails: $6 &lt;br&gt; Season Beer: $6 &lt;br&gt; Wines: $5 &lt;br&gt; Draft Beer: $1.50 off &lt;br&gt; Fish &amp; Chips with Beer: $24.95 &lt;br&gt; Wide range of appetizers", 'link':"http://www.themoothouse.com/", 'pricing':"high",   'phone-number': "", 'address': "2626 S College Ave, Fort Collins 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY71" t="str">
         <f t="shared" si="87"/>
@@ -15299,7 +15299,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
         <v>154</v>
@@ -15353,7 +15353,7 @@
         <v>1900</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>268</v>
+        <v>528</v>
       </c>
       <c r="W72">
         <f t="shared" si="72"/>
@@ -15440,23 +15440,23 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AU72" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV72" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX72" s="4" t="str">
         <f t="shared" si="86"/>
         <v>{
     'name': "Music City Hot Chicken",
     'area': "campus",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1100", 'monday-end':"2030", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "$1 Off House Cocktails \n $5 Mai Tais All Day on Mondays!", 'link':"http://www.mchcco.com/", 'pricing':"low",   'phone-number': "", 'address': "111 W. Prospect Road, Propsector Shops, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1100", 'monday-end':"2030", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "$1 Off House Cocktails &lt;br&gt; $5 Mai Tais All Day on Mondays!", 'link':"http://www.mchcco.com/", 'pricing':"low",   'phone-number': "", 'address': "111 W. Prospect Road, Propsector Shops, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY72" t="str">
         <f t="shared" si="87"/>
@@ -15510,13 +15510,13 @@
         <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G73" t="s">
         <v>204</v>
@@ -15606,22 +15606,22 @@
         <v/>
       </c>
       <c r="AR73" s="2" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="AS73" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT73" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU73" t="s">
         <v>28</v>
       </c>
       <c r="AV73" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX73" s="4" t="str">
         <f t="shared" si="86"/>
@@ -15682,13 +15682,13 @@
         <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
         <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G74" t="s">
         <v>171</v>
@@ -15718,7 +15718,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>270</v>
+        <v>529</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="72"/>
@@ -15805,26 +15805,26 @@
         <v/>
       </c>
       <c r="AR74" s="2" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AS74" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU74" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV74" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX74" s="4" t="str">
         <f t="shared" si="86"/>
         <v>{
     'name': "Nick's Italian",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1530", 'monday-end':"1800", 'tuesday-start':"1530", 'tuesday-end':"1800", 'wednesday-start':"1530", 'wednesday-end':"1800", 'thursday-start':"1530", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Draft beers $3.00 \n Budwiser $2.00 \n House Wine $3.75 \n Appetizer specials and pizza by the slice", 'link':"http://www.nicksfc.com/", 'pricing':"med",   'phone-number': "", 'address': "1100 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1530", 'monday-end':"1800", 'tuesday-start':"1530", 'tuesday-end':"1800", 'wednesday-start':"1530", 'wednesday-end':"1800", 'thursday-start':"1530", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice", 'link':"http://www.nicksfc.com/", 'pricing':"med",   'phone-number': "", 'address': "1100 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY74" t="str">
         <f t="shared" si="87"/>
@@ -15876,7 +15876,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL74" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -15884,13 +15884,13 @@
         <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D75" t="s">
         <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>125</v>
@@ -15980,16 +15980,16 @@
         <v/>
       </c>
       <c r="AR75" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AU75" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV75" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX75" s="4" t="str">
         <f t="shared" si="86"/>
@@ -16050,13 +16050,13 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G76" t="s">
         <v>206</v>
@@ -16146,22 +16146,22 @@
         <v/>
       </c>
       <c r="AR76" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AS76" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT76" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU76" t="s">
         <v>28</v>
       </c>
       <c r="AV76" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX76" s="4" t="str">
         <f t="shared" si="86"/>
@@ -16222,13 +16222,13 @@
         <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D77" t="s">
         <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>145</v>
@@ -16318,16 +16318,16 @@
         <v/>
       </c>
       <c r="AR77" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AU77" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV77" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX77" s="4" t="str">
         <f t="shared" si="86"/>
@@ -16385,16 +16385,16 @@
     </row>
     <row r="78" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E78" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G78" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="AK78" t="str">
         <f t="shared" si="96"/>
@@ -16425,7 +16425,7 @@
         <v/>
       </c>
       <c r="AU78" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV78" t="b">
         <v>0</v>
@@ -16490,7 +16490,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL78" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -16498,7 +16498,7 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
         <v>90</v>
@@ -16552,7 +16552,7 @@
         <v>1800</v>
       </c>
       <c r="V79" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W79">
         <f t="shared" ref="W79:AJ81" si="104">IF(H79&gt;0,H79/100,"")</f>
@@ -16639,19 +16639,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AS79" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU79" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV79" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX79" s="4" t="str">
         <f t="shared" si="86"/>
@@ -16712,13 +16712,13 @@
         <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D80" t="s">
         <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G80" t="s">
         <v>208</v>
@@ -16766,7 +16766,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="14" t="s">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="W80">
         <f t="shared" si="104"/>
@@ -16853,23 +16853,23 @@
         <v>10am-6pm</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="AU80" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV80" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX80" s="4" t="str">
         <f t="shared" si="86"/>
         <v>{
     'name': "Pour Brothers Community Tavern",
     'area': "old",'hours': {
-      'sunday-start':"1000", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1000", 'saturday-end':"1800"},  'description': " $1 off all drafts \n $3.50 Wells \n $5 grilled cheese meals.", 'link':"http://www.pourbrothers.com/", 'pricing':"med",   'phone-number': "", 'address': "220 Linden Street, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1000", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1000", 'saturday-end':"1800"},  'description': " $1 off all drafts &lt;br&gt; $3.50 Wells &lt;br&gt; $5 grilled cheese meals.", 'link':"http://www.pourbrothers.com/", 'pricing':"med",   'phone-number': "", 'address': "220 Linden Street, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY80" t="str">
         <f t="shared" si="87"/>
@@ -16923,13 +16923,13 @@
         <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G81" t="s">
         <v>210</v>
@@ -17019,19 +17019,19 @@
         <v/>
       </c>
       <c r="AR81" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AS81" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU81" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV81" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX81" s="4" t="str">
         <f t="shared" si="86"/>
@@ -17089,16 +17089,16 @@
     </row>
     <row r="82" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="E82" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G82" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="J82">
         <v>1500</v>
@@ -17132,7 +17132,7 @@
         <v/>
       </c>
       <c r="AU82" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV82" t="b">
         <v>1</v>
@@ -17197,7 +17197,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL82" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -17205,13 +17205,13 @@
         <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G83" t="s">
         <v>212</v>
@@ -17301,22 +17301,22 @@
         <v/>
       </c>
       <c r="AR83" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AS83" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT83" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU83" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV83" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW83" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX83" s="4" t="str">
         <f t="shared" si="86"/>
@@ -17377,7 +17377,7 @@
         <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
         <v>173</v>
@@ -17425,7 +17425,7 @@
         <v>1800</v>
       </c>
       <c r="V84" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="W84" t="str">
         <f t="shared" si="105"/>
@@ -17512,16 +17512,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR84" s="2" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AU84" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV84" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW84" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX84" s="4" t="str">
         <f t="shared" si="86"/>
@@ -17582,13 +17582,13 @@
         <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D85" t="s">
         <v>44</v>
       </c>
       <c r="E85" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>45</v>
@@ -17708,19 +17708,19 @@
         <v/>
       </c>
       <c r="AR85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AS85" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU85" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV85" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW85" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX85" s="4" t="str">
         <f t="shared" si="86"/>
@@ -17781,13 +17781,13 @@
         <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D86" t="s">
         <v>214</v>
       </c>
       <c r="E86" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G86" t="s">
         <v>215</v>
@@ -17877,19 +17877,19 @@
         <v/>
       </c>
       <c r="AR86" s="2" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AS86" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU86" t="s">
         <v>28</v>
       </c>
       <c r="AV86" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW86" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX86" s="4" t="str">
         <f t="shared" si="86"/>
@@ -17950,7 +17950,7 @@
         <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D87" t="s">
         <v>60</v>
@@ -18046,16 +18046,16 @@
         <v/>
       </c>
       <c r="AR87" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AU87" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV87" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW87" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX87" s="4" t="str">
         <f t="shared" si="86"/>
@@ -18113,16 +18113,16 @@
     </row>
     <row r="88" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E88" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G88" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="AK88" t="str">
         <f t="shared" si="96"/>
@@ -18153,7 +18153,7 @@
         <v/>
       </c>
       <c r="AU88" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV88" t="b">
         <v>1</v>
@@ -18218,7 +18218,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL88" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -18226,13 +18226,13 @@
         <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D89" t="s">
         <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G89" t="s">
         <v>218</v>
@@ -18322,16 +18322,16 @@
         <v/>
       </c>
       <c r="AR89" s="2" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="AU89" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV89" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW89" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX89" s="4" t="str">
         <f t="shared" si="86"/>
@@ -18389,16 +18389,16 @@
     </row>
     <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="C90" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E90" t="s">
         <v>54</v>
       </c>
       <c r="G90" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="AK90" t="str">
         <f t="shared" si="96"/>
@@ -18429,7 +18429,7 @@
         <v/>
       </c>
       <c r="AU90" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV90" t="b">
         <v>0</v>
@@ -18494,24 +18494,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL90" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="E91" t="s">
         <v>54</v>
       </c>
       <c r="G91" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="W91" t="str">
         <f t="shared" ref="W91:W102" si="107">IF(H91&gt;0,H91/100,"")</f>
@@ -18598,16 +18598,16 @@
         <v/>
       </c>
       <c r="AR91" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="AU91" t="s">
         <v>28</v>
       </c>
       <c r="AV91" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW91" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX91" s="4" t="str">
         <f t="shared" si="86"/>
@@ -18665,19 +18665,19 @@
     </row>
     <row r="92" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="H92">
         <v>1100</v>
@@ -18716,7 +18716,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="13" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="W92">
         <f t="shared" si="107"/>
@@ -18803,26 +18803,26 @@
         <v/>
       </c>
       <c r="AR92" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="AS92" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU92" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV92" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW92" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX92" s="4" t="str">
         <f t="shared" si="86"/>
         <v>{
     'name': "Smokin Fins",
     'area': "midtown",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2100", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 Drink Specials /n Range of Appetizer Specials /n Buy 1 Sushi Roll, Get Half Off 2nd Roll", 'link':"http://finsconcepts.com/restaurants/smokin-fins-grill/", 'pricing':"med",   'phone-number': "", 'address': "327 E Foothills Pkwy #120, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2100", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 Drink Specials &lt;br&gt; Range of Appetizer Specials &lt;br&gt; Buy 1 Sushi Roll, Get Half Off 2nd Roll", 'link':"http://finsconcepts.com/restaurants/smokin-fins-grill/", 'pricing':"med",   'phone-number': "", 'address': "327 E Foothills Pkwy #120, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY92" t="str">
         <f t="shared" si="87"/>
@@ -18876,13 +18876,13 @@
         <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G93" t="s">
         <v>220</v>
@@ -18972,22 +18972,22 @@
         <v/>
       </c>
       <c r="AR93" s="2" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="AS93" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT93" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU93" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV93" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW93" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX93" s="4" t="str">
         <f t="shared" si="86"/>
@@ -19045,10 +19045,10 @@
     </row>
     <row r="94" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C94" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D94" t="s">
         <v>226</v>
@@ -19057,7 +19057,7 @@
         <v>35</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="H94">
         <v>1600</v>
@@ -19102,7 +19102,7 @@
         <v>1800</v>
       </c>
       <c r="V94" s="13" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="W94">
         <f t="shared" si="107"/>
@@ -19189,16 +19189,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR94" s="2" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="AU94" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV94" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW94" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX94" s="4" t="str">
         <f t="shared" si="86"/>
@@ -19259,7 +19259,7 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D95" t="s">
         <v>104</v>
@@ -19355,16 +19355,16 @@
         <v/>
       </c>
       <c r="AR95" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="AU95" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV95" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW95" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX95" s="4" t="str">
         <f t="shared" si="86"/>
@@ -19425,7 +19425,7 @@
         <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D96" t="s">
         <v>138</v>
@@ -19521,16 +19521,16 @@
         <v/>
       </c>
       <c r="AR96" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AU96" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV96" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW96" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX96" s="4" t="str">
         <f t="shared" si="86"/>
@@ -19589,7 +19589,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL96" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -19597,7 +19597,7 @@
         <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="D97" t="s">
         <v>119</v>
@@ -19693,16 +19693,16 @@
         <v/>
       </c>
       <c r="AR97" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AU97" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV97" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW97" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX97" s="4" t="str">
         <f t="shared" si="86"/>
@@ -19763,13 +19763,13 @@
         <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D98" t="s">
         <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>42</v>
@@ -19859,19 +19859,19 @@
         <v/>
       </c>
       <c r="AR98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AS98" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU98" t="s">
         <v>28</v>
       </c>
       <c r="AV98" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW98" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX98" s="4" t="str">
         <f t="shared" ref="AX98:AX118" si="121">_xlfn.CONCAT("{
@@ -19934,7 +19934,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL98" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -19942,13 +19942,13 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>39</v>
@@ -19996,7 +19996,7 @@
         <v>1400</v>
       </c>
       <c r="V99" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W99">
         <f t="shared" si="107"/>
@@ -20083,16 +20083,16 @@
         <v>11.3am-2pm</v>
       </c>
       <c r="AR99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AU99" t="s">
         <v>28</v>
       </c>
       <c r="AV99" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW99" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX99" s="4" t="str">
         <f t="shared" si="121"/>
@@ -20150,19 +20150,19 @@
     </row>
     <row r="100" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="107"/>
@@ -20249,16 +20249,16 @@
         <v/>
       </c>
       <c r="AR100" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="AU100" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV100" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW100" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX100" s="4" t="str">
         <f t="shared" si="121"/>
@@ -20319,13 +20319,13 @@
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D101" t="s">
         <v>113</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>114</v>
@@ -20445,16 +20445,16 @@
         <v/>
       </c>
       <c r="AR101" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="AU101" t="s">
         <v>28</v>
       </c>
       <c r="AV101" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW101" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX101" s="4" t="str">
         <f t="shared" si="121"/>
@@ -20515,13 +20515,13 @@
         <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D102" t="s">
         <v>81</v>
       </c>
       <c r="E102" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>82</v>
@@ -20611,19 +20611,19 @@
         <v/>
       </c>
       <c r="AR102" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="AS102" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU102" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV102" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW102" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX102" s="4" t="str">
         <f t="shared" si="121"/>
@@ -20681,16 +20681,16 @@
     </row>
     <row r="103" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="C103" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E103" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="AK103" t="str">
         <f t="shared" si="96"/>
@@ -20721,7 +20721,7 @@
         <v/>
       </c>
       <c r="AU103" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV103" t="b">
         <v>0</v>
@@ -20786,7 +20786,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL103" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -20794,7 +20794,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
         <v>101</v>
@@ -20890,16 +20890,16 @@
         <v/>
       </c>
       <c r="AR104" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="AU104" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV104" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW104" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX104" s="4" t="str">
         <f t="shared" si="121"/>
@@ -20960,7 +20960,7 @@
         <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
         <v>84</v>
@@ -21056,19 +21056,19 @@
         <v/>
       </c>
       <c r="AR105" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AS105" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU105" t="s">
         <v>28</v>
       </c>
       <c r="AV105" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW105" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX105" s="4" t="str">
         <f t="shared" si="121"/>
@@ -21129,13 +21129,13 @@
         <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
         <v>90</v>
       </c>
       <c r="E106" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G106" t="s">
         <v>222</v>
@@ -21171,7 +21171,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="13" t="s">
-        <v>283</v>
+        <v>531</v>
       </c>
       <c r="W106" t="str">
         <f t="shared" si="131"/>
@@ -21258,23 +21258,23 @@
         <v/>
       </c>
       <c r="AR106" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="AU106" t="s">
         <v>28</v>
       </c>
       <c r="AV106" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW106" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX106" s="4" t="str">
         <f t="shared" si="121"/>
         <v>{
     'name': "The Colorado Room",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks \n $2 Domestics &amp; Well Drinks \n $3 Flavored Pinnacle &amp; Three Olives Vodka \n $4 Mile High Spirits \n Fireside &amp; Fireside Peach Bourbon, Elevate Vodka, Denver Dry Gin, Peg Leg Rum \n $1 off Craft Drafts \n Food \n $2.50 Pork Sammys \n $3 Poutine", 'link':"http://www.thecoloradoroom.com", 'pricing':"med",   'phone-number': "", 'address': "642 S. College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks &lt;br&gt; $2 Domestics &amp; Well Drinks &lt;br&gt; $3 Flavored Pinnacle &amp; Three Olives Vodka &lt;br&gt; $4 Mile High Spirits &lt;br&gt; Fireside &amp; Fireside Peach Bourbon, Elevate Vodka, Denver Dry Gin, Peg Leg Rum &lt;br&gt; $1 off Craft Drafts &lt;br&gt; Food &lt;br&gt; $2.50 Pork Sammys &lt;br&gt; $3 Poutine", 'link':"http://www.thecoloradoroom.com", 'pricing':"med",   'phone-number': "", 'address': "642 S. College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY106" t="str">
         <f t="shared" si="122"/>
@@ -21328,7 +21328,7 @@
         <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D107" t="s">
         <v>176</v>
@@ -21370,7 +21370,7 @@
         <v>1800</v>
       </c>
       <c r="V107" s="13" t="s">
-        <v>317</v>
+        <v>532</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="131"/>
@@ -21457,23 +21457,23 @@
         <v/>
       </c>
       <c r="AR107" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AU107" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV107" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW107" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX107" s="4" t="str">
         <f t="shared" si="121"/>
         <v>{
     'name': "The Kitchen",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 draft beer \n $5 wine \n $5 select cocktails \n $4 select appetizers", 'link':"https://www.thekitchenbistros.com/location/the-kitchen-fort-collins/", 'pricing':"high",   'phone-number': "", 'address': "100 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 draft beer &lt;br&gt; $5 wine &lt;br&gt; $5 select cocktails &lt;br&gt; $4 select appetizers", 'link':"https://www.thekitchenbistros.com/location/the-kitchen-fort-collins/", 'pricing':"high",   'phone-number': "", 'address': "100 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY107" t="str">
         <f t="shared" si="122"/>
@@ -21527,13 +21527,13 @@
         <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D108" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E108" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G108" t="s">
         <v>224</v>
@@ -21563,7 +21563,7 @@
         <v>1800</v>
       </c>
       <c r="V108" s="13" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="W108">
         <f t="shared" si="131"/>
@@ -21650,16 +21650,16 @@
         <v/>
       </c>
       <c r="AR108" s="2" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="AU108" t="s">
         <v>28</v>
       </c>
       <c r="AV108" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW108" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX108" s="4" t="str">
         <f t="shared" si="121"/>
@@ -21717,16 +21717,16 @@
     </row>
     <row r="109" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="C109" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="E109" t="s">
         <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="AK109" t="str">
         <f t="shared" si="96"/>
@@ -21757,7 +21757,7 @@
         <v/>
       </c>
       <c r="AU109" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV109" t="b">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL109" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
@@ -21830,13 +21830,13 @@
         <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D110" t="s">
         <v>226</v>
       </c>
       <c r="E110" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G110" t="s">
         <v>227</v>
@@ -21884,7 +21884,7 @@
         <v>1900</v>
       </c>
       <c r="V110" s="13" t="s">
-        <v>286</v>
+        <v>533</v>
       </c>
       <c r="W110">
         <f t="shared" ref="W110:W118" si="132">IF(H110&gt;0,H110/100,"")</f>
@@ -21971,26 +21971,26 @@
         <v>9.3am-7pm</v>
       </c>
       <c r="AR110" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AS110" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU110" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV110" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW110" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX110" s="4" t="str">
         <f t="shared" si="121"/>
         <v>{
     'name': "Tony's Bar",
     'area': "old",'hours': {
-      'sunday-start':"930", 'sunday-end':"2400", 'monday-start':"1030", 'monday-end':"1900", 'tuesday-start':"1030", 'tuesday-end':"1900", 'wednesday-start':"1030", 'wednesday-end':"1900", 'thursday-start':"1030", 'thursday-end':"1900", 'friday-start':"1030", 'friday-end':"1900", 'saturday-start':"930", 'saturday-end':"1900"},  'description': "Free pool during Happy Hour and all day Tuesday \n $2.00 Domestic Drafts \n $3.00 Select Micro Drafts \n $3.00 Single/$5.00 Double Wells and Freshies \n $5.00 Moscow Mules \n Happy Hour Appetizers: $6.00 Select appetizers Monday thru Friday 2 PM til 6 PM", 'link':"https://tonysbarfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "224 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"930", 'sunday-end':"2400", 'monday-start':"1030", 'monday-end':"1900", 'tuesday-start':"1030", 'tuesday-end':"1900", 'wednesday-start':"1030", 'wednesday-end':"1900", 'thursday-start':"1030", 'thursday-end':"1900", 'friday-start':"1030", 'friday-end':"1900", 'saturday-start':"930", 'saturday-end':"1900"},  'description': "Free pool during Happy Hour and all day Tuesday &lt;br&gt; $2.00 Domestic Drafts &lt;br&gt; $3.00 Select Micro Drafts &lt;br&gt; $3.00 Single/$5.00 Double Wells and Freshies &lt;br&gt; $5.00 Moscow Mules &lt;br&gt; Happy Hour Appetizers: $6.00 Select appetizers Monday thru Friday 2 PM til 6 PM", 'link':"https://tonysbarfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "224 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY110" t="str">
         <f t="shared" si="122"/>
@@ -22041,19 +22041,19 @@
     </row>
     <row r="111" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="C111" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D111" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="E111" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G111" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="J111">
         <v>1500</v>
@@ -22086,7 +22086,7 @@
         <v>1900</v>
       </c>
       <c r="V111" s="13" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="W111" t="str">
         <f t="shared" si="132"/>
@@ -22173,26 +22173,26 @@
         <v/>
       </c>
       <c r="AR111" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="AS111" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU111" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV111" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AW111" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AX111" s="4" t="str">
         <f t="shared" si="121"/>
         <v>{
     'name': "Torchys Tacos",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.50 Off All Beers and Margs \n $0.50 Off Everything Else", 'link':"https://torchystacos.com/location/fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "3280 S COLLEGE AVE FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.50 Off All Beers and Margs &lt;br&gt; $0.50 Off Everything Else", 'link':"https://torchystacos.com/location/fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "3280 S COLLEGE AVE FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY111" t="str">
         <f t="shared" si="122"/>
@@ -22246,13 +22246,13 @@
         <v>228</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G112" t="s">
         <v>229</v>
@@ -22342,16 +22342,16 @@
         <v/>
       </c>
       <c r="AR112" s="2" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="AU112" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV112" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW112" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX112" s="4" t="str">
         <f t="shared" si="121"/>
@@ -22409,19 +22409,19 @@
     </row>
     <row r="113" spans="2:63" ht="203" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
         <v>54</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H113">
         <v>1100</v>
@@ -22466,7 +22466,7 @@
         <v>1900</v>
       </c>
       <c r="V113" s="13" t="s">
-        <v>329</v>
+        <v>535</v>
       </c>
       <c r="W113">
         <f t="shared" si="132"/>
@@ -22553,23 +22553,23 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR113" s="8" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="AU113" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AV113" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW113" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX113" s="4" t="str">
         <f t="shared" si="121"/>
         <v>{
     'name': "Trailhead Tavern",
     'area': "old",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1900", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2300", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"1100", 'thursday-end':"2400", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Monday-Sunday 11 am-7 pm: \n $2 domestics and $6 pitchers \n $2.50-micros and $8 pitchers \n $2 wells \n $2 PBR pints (all day) \n Monday: \n Happy Hour All Day \n Tuesday: \n 2-for-1 burgers 7pm-11pm \n $2 select micros 7pm-close \n Wednesday 7 pm-close: \n $2.50 New Belgium \n Thursday 7 pm-close: \n $2.50 Odell beers \n $1 tacos 6-11 pm \n Friday: \n $6 PBR pitchers and $2.50 Jagermeister \n Saturday: \n $4 domestic beer and brat \n Sunday: \n $16 wings and pitcher (domestic) \n $19 wings and pitcher (micro)", 'link':"http://www.trailheadtavern.com/", 'pricing':"low",   'phone-number': "", 'address': "148 W Mountain Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"1100", 'sunday-end':"1900", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2300", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"1100", 'thursday-end':"2400", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Monday-Sunday 11 am-7 pm: &lt;br&gt; $2 domestics and $6 pitchers &lt;br&gt; $2.50-micros and $8 pitchers &lt;br&gt; $2 wells &lt;br&gt; $2 PBR pints (all day) &lt;br&gt; Monday: &lt;br&gt; Happy Hour All Day &lt;br&gt; Tuesday: &lt;br&gt; 2-for-1 burgers 7pm-11pm &lt;br&gt; $2 select micros 7pm-close &lt;br&gt; Wednesday 7 pm-close: &lt;br&gt; $2.50 New Belgium &lt;br&gt; Thursday 7 pm-close: &lt;br&gt; $2.50 Odell beers &lt;br&gt; $1 tacos 6-11 pm &lt;br&gt; Friday: &lt;br&gt; $6 PBR pitchers and $2.50 Jagermeister &lt;br&gt; Saturday: &lt;br&gt; $4 domestic beer and brat &lt;br&gt; Sunday: &lt;br&gt; $16 wings and pitcher (domestic) &lt;br&gt; $19 wings and pitcher (micro)", 'link':"http://www.trailheadtavern.com/", 'pricing':"low",   'phone-number': "", 'address': "148 W Mountain Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY113" t="str">
         <f t="shared" si="122"/>
@@ -22620,19 +22620,19 @@
     </row>
     <row r="114" spans="2:63" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="C114" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E114" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="W114" t="str">
         <f t="shared" si="132"/>
@@ -22719,19 +22719,19 @@
         <v/>
       </c>
       <c r="AR114" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="AS114" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AU114" t="s">
         <v>28</v>
       </c>
       <c r="AV114" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW114" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX114" s="4" t="str">
         <f t="shared" si="121"/>
@@ -22792,7 +22792,7 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D115" t="s">
         <v>129</v>
@@ -22888,22 +22888,22 @@
         <v/>
       </c>
       <c r="AR115" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AS115" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT115" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU115" t="s">
         <v>28</v>
       </c>
       <c r="AV115" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW115" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX115" s="4" t="str">
         <f t="shared" si="121"/>
@@ -22964,13 +22964,13 @@
         <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
         <v>147</v>
       </c>
       <c r="E116" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G116" t="s">
         <v>231</v>
@@ -23060,16 +23060,16 @@
         <v/>
       </c>
       <c r="AR116" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="AU116" t="s">
         <v>28</v>
       </c>
       <c r="AV116" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW116" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX116" s="4" t="str">
         <f t="shared" si="121"/>
@@ -23130,13 +23130,13 @@
         <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D117" t="s">
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>51</v>
@@ -23226,16 +23226,16 @@
         <v/>
       </c>
       <c r="AR117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU117" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="AV117" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW117" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX117" s="4" t="str">
         <f t="shared" si="121"/>
@@ -23296,13 +23296,13 @@
         <v>232</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E118" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G118" t="s">
         <v>233</v>
@@ -23392,22 +23392,22 @@
         <v/>
       </c>
       <c r="AR118" s="8" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="AS118" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AT118" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AU118" t="s">
         <v>28</v>
       </c>
       <c r="AV118" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AW118" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AX118" s="4" t="str">
         <f t="shared" si="121"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\happyhour_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6527394-62C5-4218-9F75-9B3704CC720F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1519,9 +1518,6 @@
     <t>$3 select brews &lt;br&gt; $4 wells &lt;br&gt; $5 house wines</t>
   </si>
   <si>
-    <t>Tueday: Up to two kids eat free with adult purchase</t>
-  </si>
-  <si>
     <t>2 for 1 Drink Specials &lt;br&gt; Range of Appetizer Specials &lt;br&gt; Buy 1 Sushi Roll, Get Half Off 2nd Roll</t>
   </si>
   <si>
@@ -1634,12 +1630,15 @@
   </si>
   <si>
     <t>Monday-Sunday 11 am-7 pm: &lt;br&gt; $2 domestics and $6 pitchers &lt;br&gt; $2.50-micros and $8 pitchers &lt;br&gt; $2 wells &lt;br&gt; $2 PBR pints (all day) &lt;br&gt; Monday: &lt;br&gt; Happy Hour All Day &lt;br&gt; Tuesday: &lt;br&gt; 2-for-1 burgers 7pm-11pm &lt;br&gt; $2 select micros 7pm-close &lt;br&gt; Wednesday 7 pm-close: &lt;br&gt; $2.50 New Belgium &lt;br&gt; Thursday 7 pm-close: &lt;br&gt; $2.50 Odell beers &lt;br&gt; $1 tacos 6-11 pm &lt;br&gt; Friday: &lt;br&gt; $6 PBR pitchers and $2.50 Jagermeister &lt;br&gt; Saturday: &lt;br&gt; $4 domestic beer and brat &lt;br&gt; Sunday: &lt;br&gt; $16 wings and pitcher (domestic) &lt;br&gt; $19 wings and pitcher (micro)</t>
+  </si>
+  <si>
+    <t>Tueday: Kids eat free (max 2) with adult purchase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1774,7 +1773,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2086,31 +2085,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P84" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V68" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="21" width="6" customWidth="1"/>
     <col min="22" max="22" width="6" style="13" customWidth="1"/>
     <col min="23" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="13.6328125" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="15.90625" customWidth="1"/>
-    <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.08984375" customWidth="1"/>
-    <col min="57" max="57" width="53.54296875" customWidth="1"/>
+    <col min="40" max="42" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" customWidth="1"/>
+    <col min="57" max="57" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>470</v>
       </c>
@@ -2490,10 +2489,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>109</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>134</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>1900</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="24"/>
@@ -3835,7 +3834,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="210" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W10">
         <f t="shared" si="24"/>
@@ -4055,7 +4054,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>253</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>2400</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W11">
         <f t="shared" si="24"/>
@@ -4266,7 +4265,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>312</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>1900</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="24"/>
@@ -4631,7 +4630,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>151</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>1600</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W14">
         <f t="shared" si="24"/>
@@ -4851,7 +4850,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="180" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>274</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>1600</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="24"/>
@@ -5062,7 +5061,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>1800</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="24"/>
@@ -5264,7 +5263,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>275</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="24"/>
@@ -5448,7 +5447,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>182</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>459</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>380</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="180" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>401</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>1800</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W21">
         <f t="shared" si="46"/>
@@ -6113,7 +6112,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>283</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>2300</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W22">
         <f t="shared" si="46"/>
@@ -6327,7 +6326,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>282</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>1800</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="46"/>
@@ -6529,7 +6528,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>126</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>153</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="46"/>
@@ -7247,7 +7246,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>156</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>2100</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W28">
         <f t="shared" si="46"/>
@@ -7437,7 +7436,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>2400</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W29">
         <f t="shared" si="46"/>
@@ -7651,7 +7650,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>460</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>461</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>185</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>68</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>159</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>277</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>1900</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="46"/>
@@ -8919,7 +8918,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="160.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:64" ht="181.5" x14ac:dyDescent="0.35">
       <c r="B37" s="10" t="s">
         <v>381</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W37">
         <f t="shared" si="46"/>
@@ -9130,7 +9129,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>462</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>264</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>98</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>73</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>278</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>286</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="70"/>
@@ -10196,7 +10195,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>190</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>192</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>463</v>
       </c>
@@ -10638,7 +10637,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>194</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>288</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>1900</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="71"/>
@@ -11012,7 +11011,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>393</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>1800</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W49">
         <f t="shared" si="71"/>
@@ -11214,7 +11213,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>196</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>46</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>162</v>
       </c>
@@ -11611,7 +11610,7 @@
         <v>2000</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W52">
         <f t="shared" si="71"/>
@@ -11766,7 +11765,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>464</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>198</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>1900</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W55">
         <f t="shared" si="72"/>
@@ -12259,7 +12258,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>92</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>33</v>
       </c>
@@ -12532,7 +12531,7 @@
         <v>1830</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W57">
         <f t="shared" si="72"/>
@@ -12687,7 +12686,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="180" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>115</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>117</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="72"/>
@@ -12859,7 +12858,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>131</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>164</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>1800</v>
       </c>
       <c r="V61" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="72"/>
@@ -13387,7 +13386,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>390</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>1900</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W62">
         <f t="shared" si="72"/>
@@ -13592,7 +13591,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="195" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>200</v>
       </c>
@@ -13651,7 +13650,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W63">
         <f t="shared" si="72"/>
@@ -13806,7 +13805,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="210" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>290</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>1900</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W64">
         <f t="shared" si="72"/>
@@ -14017,7 +14016,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>385</v>
       </c>
@@ -14186,7 +14185,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>293</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W66">
         <f t="shared" si="72"/>
@@ -14401,7 +14400,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>166</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>62</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>201</v>
       </c>
@@ -14905,7 +14904,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>408</v>
       </c>
@@ -15080,7 +15079,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="165" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>121</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W71">
         <f t="shared" si="72"/>
@@ -15294,7 +15293,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>168</v>
       </c>
@@ -15353,7 +15352,7 @@
         <v>1900</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W72">
         <f t="shared" si="72"/>
@@ -15505,7 +15504,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>203</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>170</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="72"/>
@@ -15879,7 +15878,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>123</v>
       </c>
@@ -16045,7 +16044,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>205</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>143</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>465</v>
       </c>
@@ -16493,7 +16492,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>89</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>207</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W80">
         <f t="shared" si="104"/>
@@ -16918,7 +16917,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>209</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>466</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>211</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>172</v>
       </c>
@@ -17577,7 +17576,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>43</v>
       </c>
@@ -17776,7 +17775,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>213</v>
       </c>
@@ -17945,7 +17944,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>59</v>
       </c>
@@ -18111,7 +18110,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>467</v>
       </c>
@@ -18221,7 +18220,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>216</v>
       </c>
@@ -18387,7 +18386,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>495</v>
       </c>
@@ -18497,7 +18496,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>411</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>392</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W92">
         <f t="shared" si="107"/>
@@ -18871,7 +18870,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>219</v>
       </c>
@@ -19043,7 +19042,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>295</v>
       </c>
@@ -19254,7 +19253,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>103</v>
       </c>
@@ -19420,7 +19419,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>137</v>
       </c>
@@ -19592,7 +19591,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>118</v>
       </c>
@@ -19758,7 +19757,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>40</v>
       </c>
@@ -19937,7 +19936,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>37</v>
       </c>
@@ -20148,7 +20147,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>389</v>
       </c>
@@ -20314,7 +20313,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>112</v>
       </c>
@@ -20510,7 +20509,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>80</v>
       </c>
@@ -20679,7 +20678,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>468</v>
       </c>
@@ -20789,7 +20788,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>100</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>83</v>
       </c>
@@ -21124,7 +21123,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="180" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>221</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W106" t="str">
         <f t="shared" si="131"/>
@@ -21323,7 +21322,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>175</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>1800</v>
       </c>
       <c r="V107" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="131"/>
@@ -21522,7 +21521,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>223</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="120" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>469</v>
       </c>
@@ -21825,7 +21824,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="180" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>225</v>
       </c>
@@ -21884,7 +21883,7 @@
         <v>1900</v>
       </c>
       <c r="V110" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W110">
         <f t="shared" ref="W110:W118" si="132">IF(H110&gt;0,H110/100,"")</f>
@@ -22039,7 +22038,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="150" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>394</v>
       </c>
@@ -22086,7 +22085,7 @@
         <v>1900</v>
       </c>
       <c r="V111" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W111" t="str">
         <f t="shared" si="132"/>
@@ -22241,7 +22240,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="135" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>228</v>
       </c>
@@ -22407,7 +22406,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:63" ht="203" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:63" ht="225" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>297</v>
       </c>
@@ -22466,7 +22465,7 @@
         <v>1900</v>
       </c>
       <c r="V113" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W113">
         <f t="shared" si="132"/>
@@ -22618,7 +22617,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:63" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:63" ht="135" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>415</v>
       </c>
@@ -22787,7 +22786,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:63" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:63" ht="135" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>128</v>
       </c>
@@ -22959,7 +22958,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:63" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:63" ht="135" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>230</v>
       </c>
@@ -23125,7 +23124,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:63" ht="116" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:63" ht="135" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>49</v>
       </c>
@@ -23291,7 +23290,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:63" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:63" ht="135" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>232</v>
       </c>
@@ -23468,71 +23467,71 @@
     <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G84" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR73" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR102" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR79" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR60" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR104" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR95" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR101" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR97" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR71" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR115" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR55" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR5" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR61" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR74" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR84" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR16" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR54" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR69" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR80" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR86" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR89" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR93" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR108" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR112" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR118" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR15" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR48" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR113" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR49" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR30" r:id="rId65" xr:uid="{4ADD2E53-2EA7-49A0-8576-DCB240F148F0}"/>
+    <hyperlink ref="G84" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR25" r:id="rId2"/>
+    <hyperlink ref="AR63" r:id="rId3"/>
+    <hyperlink ref="AR18" r:id="rId4"/>
+    <hyperlink ref="AR73" r:id="rId5"/>
+    <hyperlink ref="AR12" r:id="rId6"/>
+    <hyperlink ref="AR6" r:id="rId7"/>
+    <hyperlink ref="AR34" r:id="rId8"/>
+    <hyperlink ref="AR20" r:id="rId9"/>
+    <hyperlink ref="AR41" r:id="rId10"/>
+    <hyperlink ref="AR29" r:id="rId11"/>
+    <hyperlink ref="AR102" r:id="rId12"/>
+    <hyperlink ref="AR33" r:id="rId13"/>
+    <hyperlink ref="AR79" r:id="rId14"/>
+    <hyperlink ref="AR60" r:id="rId15"/>
+    <hyperlink ref="AR40" r:id="rId16"/>
+    <hyperlink ref="AR104" r:id="rId17"/>
+    <hyperlink ref="AR95" r:id="rId18"/>
+    <hyperlink ref="AR11" r:id="rId19"/>
+    <hyperlink ref="AR7" r:id="rId20"/>
+    <hyperlink ref="AR101" r:id="rId21"/>
+    <hyperlink ref="AR58" r:id="rId22"/>
+    <hyperlink ref="AR97" r:id="rId23"/>
+    <hyperlink ref="AR71" r:id="rId24"/>
+    <hyperlink ref="AR115" r:id="rId25"/>
+    <hyperlink ref="AR59" r:id="rId26"/>
+    <hyperlink ref="AR8" r:id="rId27"/>
+    <hyperlink ref="AR55" r:id="rId28"/>
+    <hyperlink ref="AR4" r:id="rId29"/>
+    <hyperlink ref="AR5" r:id="rId30"/>
+    <hyperlink ref="AR26" r:id="rId31"/>
+    <hyperlink ref="AR28" r:id="rId32"/>
+    <hyperlink ref="AR35" r:id="rId33"/>
+    <hyperlink ref="AR52" r:id="rId34"/>
+    <hyperlink ref="AR61" r:id="rId35"/>
+    <hyperlink ref="AR67" r:id="rId36"/>
+    <hyperlink ref="AR72" r:id="rId37"/>
+    <hyperlink ref="AR74" r:id="rId38"/>
+    <hyperlink ref="AR84" r:id="rId39"/>
+    <hyperlink ref="AR9" r:id="rId40"/>
+    <hyperlink ref="AR16" r:id="rId41"/>
+    <hyperlink ref="AR39" r:id="rId42"/>
+    <hyperlink ref="AR50" r:id="rId43"/>
+    <hyperlink ref="AR54" r:id="rId44"/>
+    <hyperlink ref="AR69" r:id="rId45"/>
+    <hyperlink ref="AR80" r:id="rId46"/>
+    <hyperlink ref="AR86" r:id="rId47"/>
+    <hyperlink ref="AR89" r:id="rId48"/>
+    <hyperlink ref="AR93" r:id="rId49"/>
+    <hyperlink ref="AR106" r:id="rId50"/>
+    <hyperlink ref="AR108" r:id="rId51"/>
+    <hyperlink ref="AR112" r:id="rId52"/>
+    <hyperlink ref="AR118" r:id="rId53"/>
+    <hyperlink ref="AR15" r:id="rId54"/>
+    <hyperlink ref="AR36" r:id="rId55"/>
+    <hyperlink ref="AR42" r:id="rId56"/>
+    <hyperlink ref="AR43" r:id="rId57"/>
+    <hyperlink ref="AR48" r:id="rId58"/>
+    <hyperlink ref="AR64" r:id="rId59"/>
+    <hyperlink ref="AR66" r:id="rId60"/>
+    <hyperlink ref="AR94" r:id="rId61"/>
+    <hyperlink ref="AR113" r:id="rId62"/>
+    <hyperlink ref="AR37" r:id="rId63"/>
+    <hyperlink ref="AR49" r:id="rId64"/>
+    <hyperlink ref="AR30" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId66"/>
@@ -23540,14 +23539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F22D206-CCC0-4994-AA23-452C2700B36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
